--- a/data/VPL.xlsx
+++ b/data/VPL.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="324">
   <si>
     <t>Liên Hệ</t>
   </si>
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>26/11/2025</t>
+    <t>17/12/2025</t>
   </si>
   <si>
     <t>VPL</t>
@@ -83,6 +83,12 @@
   </si>
   <si>
     <t>Quý</t>
+  </si>
+  <si>
+    <t>Q2 2024</t>
+  </si>
+  <si>
+    <t>Q4 2024</t>
   </si>
   <si>
     <t>Q1 2025</t>
@@ -1715,7 +1721,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D1F27F-35E6-5C48-8053-57EA86EBE2B3}">
-  <dimension ref="A1:K141"/>
+  <dimension ref="A1:M141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -1734,6 +1740,8 @@
     <col min="9" max="9" customWidth="true" width="20.3671875" bestFit="true"/>
     <col min="10" max="10" customWidth="true" width="20.3671875" bestFit="true"/>
     <col min="11" max="11" width="20.3671875" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="20.3671875" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="20.3671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1810,10 +1818,16 @@
       <c r="K11" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="L11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" s="13" t="n">
         <v>1.3357209845837E13</v>
@@ -1834,18 +1848,24 @@
         <v>2.5507217E13</v>
       </c>
       <c r="I12" s="13" t="n">
+        <v>1.5055099E13</v>
+      </c>
+      <c r="J12" s="13" t="n">
+        <v>2.5507217E13</v>
+      </c>
+      <c r="K12" s="13" t="n">
         <v>2.5538045E13</v>
       </c>
-      <c r="J12" s="13" t="n">
+      <c r="L12" s="13" t="n">
         <v>2.9647156E13</v>
       </c>
-      <c r="K12" s="13" t="n">
+      <c r="M12" s="13" t="n">
         <v>3.1490644E13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" s="13" t="n">
         <v>1.92582448162E12</v>
@@ -1866,18 +1886,24 @@
         <v>1.889379E12</v>
       </c>
       <c r="I13" s="13" t="n">
+        <v>6.1841E11</v>
+      </c>
+      <c r="J13" s="13" t="n">
+        <v>1.889379E12</v>
+      </c>
+      <c r="K13" s="13" t="n">
         <v>1.141683E12</v>
       </c>
-      <c r="J13" s="13" t="n">
+      <c r="L13" s="13" t="n">
         <v>1.806735E12</v>
       </c>
-      <c r="K13" s="13" t="n">
+      <c r="M13" s="13" t="n">
         <v>5.198588E12</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B14" s="13" t="n">
         <v>1.586931262598E12</v>
@@ -1898,18 +1924,24 @@
         <v>8.89379E11</v>
       </c>
       <c r="I14" s="13" t="n">
+        <v>6.17611E11</v>
+      </c>
+      <c r="J14" s="13" t="n">
+        <v>8.89379E11</v>
+      </c>
+      <c r="K14" s="13" t="n">
         <v>5.21754E11</v>
       </c>
-      <c r="J14" s="13" t="n">
+      <c r="L14" s="13" t="n">
         <v>1.206735E12</v>
       </c>
-      <c r="K14" s="13" t="n">
+      <c r="M14" s="13" t="n">
         <v>4.417588E12</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" s="13" t="n">
         <v>3.38893219022E11</v>
@@ -1930,18 +1962,24 @@
         <v>1.0E12</v>
       </c>
       <c r="I15" s="13" t="n">
+        <v>7.99E8</v>
+      </c>
+      <c r="J15" s="13" t="n">
+        <v>1.0E12</v>
+      </c>
+      <c r="K15" s="13" t="n">
         <v>6.19929E11</v>
       </c>
-      <c r="J15" s="13" t="n">
+      <c r="L15" s="13" t="n">
         <v>6.0E11</v>
       </c>
-      <c r="K15" s="13" t="n">
+      <c r="M15" s="13" t="n">
         <v>7.81E11</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B16" s="13" t="n">
         <v>2.542145338191E12</v>
@@ -1962,18 +2000,24 @@
         <v>1.561352E12</v>
       </c>
       <c r="I16" s="13" t="n">
+        <v>1.560867E12</v>
+      </c>
+      <c r="J16" s="13" t="n">
+        <v>1.561352E12</v>
+      </c>
+      <c r="K16" s="13" t="n">
         <v>2.498968E12</v>
       </c>
-      <c r="J16" s="13" t="n">
+      <c r="L16" s="13" t="n">
         <v>2.341957E12</v>
       </c>
-      <c r="K16" s="13" t="n">
+      <c r="M16" s="13" t="n">
         <v>1.745487E12</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17" s="13" t="n">
         <v>2.44246938E12</v>
@@ -2002,10 +2046,16 @@
       <c r="K17" s="13" t="n">
         <v>1.406325E12</v>
       </c>
+      <c r="L17" s="13" t="n">
+        <v>1.406325E12</v>
+      </c>
+      <c r="M17" s="13" t="n">
+        <v>1.406325E12</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B18" s="13" t="n">
         <v>0.0</v>
@@ -2032,12 +2082,18 @@
         <v>0.0</v>
       </c>
       <c r="K18" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L18" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M18" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B19" s="13" t="n">
         <v>9.9675958191E10</v>
@@ -2058,18 +2114,24 @@
         <v>1.55027E11</v>
       </c>
       <c r="I19" s="13" t="n">
+        <v>1.54542E11</v>
+      </c>
+      <c r="J19" s="13" t="n">
+        <v>1.55027E11</v>
+      </c>
+      <c r="K19" s="13" t="n">
         <v>1.092643E12</v>
       </c>
-      <c r="J19" s="13" t="n">
+      <c r="L19" s="13" t="n">
         <v>9.35632E11</v>
       </c>
-      <c r="K19" s="13" t="n">
+      <c r="M19" s="13" t="n">
         <v>3.39162E11</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B20" s="13" t="n">
         <v>3.041832917968E12</v>
@@ -2090,18 +2152,24 @@
         <v>1.5601105E13</v>
       </c>
       <c r="I20" s="13" t="n">
+        <v>5.497535E12</v>
+      </c>
+      <c r="J20" s="13" t="n">
+        <v>1.5601105E13</v>
+      </c>
+      <c r="K20" s="13" t="n">
         <v>1.5389176E13</v>
       </c>
-      <c r="J20" s="13" t="n">
+      <c r="L20" s="13" t="n">
         <v>1.9017E13</v>
       </c>
-      <c r="K20" s="13" t="n">
+      <c r="M20" s="13" t="n">
         <v>1.7724883E13</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B21" s="13" t="n">
         <v>1.034134565435E12</v>
@@ -2122,18 +2190,24 @@
         <v>9.92291E11</v>
       </c>
       <c r="I21" s="13" t="n">
+        <v>7.28671E11</v>
+      </c>
+      <c r="J21" s="13" t="n">
+        <v>9.92291E11</v>
+      </c>
+      <c r="K21" s="13" t="n">
         <v>9.00507E11</v>
       </c>
-      <c r="J21" s="13" t="n">
+      <c r="L21" s="13" t="n">
         <v>9.61725E11</v>
       </c>
-      <c r="K21" s="13" t="n">
+      <c r="M21" s="13" t="n">
         <v>1.092508E12</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B22" s="13" t="n">
         <v>1.225240082419E12</v>
@@ -2154,18 +2228,24 @@
         <v>1.246065E12</v>
       </c>
       <c r="I22" s="13" t="n">
+        <v>1.351102E12</v>
+      </c>
+      <c r="J22" s="13" t="n">
+        <v>1.246065E12</v>
+      </c>
+      <c r="K22" s="13" t="n">
         <v>1.061284E12</v>
       </c>
-      <c r="J22" s="13" t="n">
+      <c r="L22" s="13" t="n">
         <v>1.056785E12</v>
       </c>
-      <c r="K22" s="13" t="n">
+      <c r="M22" s="13" t="n">
         <v>3.388518E12</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B23" s="13" t="n">
         <v>0.0</v>
@@ -2192,12 +2272,18 @@
         <v>0.0</v>
       </c>
       <c r="K23" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L23" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M23" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B24" s="13" t="n">
         <v>0.0</v>
@@ -2224,12 +2310,18 @@
         <v>0.0</v>
       </c>
       <c r="K24" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L24" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M24" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B25" s="13" t="n">
         <v>0.0</v>
@@ -2250,18 +2342,24 @@
         <v>1.2464401E13</v>
       </c>
       <c r="I25" s="13" t="n">
+        <v>3.0126E12</v>
+      </c>
+      <c r="J25" s="13" t="n">
+        <v>1.2464401E13</v>
+      </c>
+      <c r="K25" s="13" t="n">
         <v>1.1796401E13</v>
       </c>
-      <c r="J25" s="13" t="n">
+      <c r="L25" s="13" t="n">
         <v>1.5514826E13</v>
       </c>
-      <c r="K25" s="13" t="n">
+      <c r="M25" s="13" t="n">
         <v>1.1284826E13</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B26" s="13" t="n">
         <v>7.84280640941E11</v>
@@ -2282,18 +2380,24 @@
         <v>9.45756E11</v>
       </c>
       <c r="I26" s="13" t="n">
+        <v>4.7704E11</v>
+      </c>
+      <c r="J26" s="13" t="n">
+        <v>9.45756E11</v>
+      </c>
+      <c r="K26" s="13" t="n">
         <v>1.669141E12</v>
       </c>
-      <c r="J26" s="13" t="n">
+      <c r="L26" s="13" t="n">
         <v>1.524341E12</v>
       </c>
-      <c r="K26" s="13" t="n">
+      <c r="M26" s="13" t="n">
         <v>1.998095E12</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B27" s="13" t="n">
         <v>-1.822370827E9</v>
@@ -2314,18 +2418,24 @@
         <v>-4.7408E10</v>
       </c>
       <c r="I27" s="13" t="n">
+        <v>-7.1878E10</v>
+      </c>
+      <c r="J27" s="13" t="n">
+        <v>-4.7408E10</v>
+      </c>
+      <c r="K27" s="13" t="n">
         <v>-3.8157E10</v>
       </c>
-      <c r="J27" s="13" t="n">
+      <c r="L27" s="13" t="n">
         <v>-4.0677E10</v>
       </c>
-      <c r="K27" s="13" t="n">
+      <c r="M27" s="13" t="n">
         <v>-3.9064E10</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B28" s="13" t="n">
         <v>0.0</v>
@@ -2354,10 +2464,16 @@
       <c r="K28" s="13" t="n">
         <v>0.0</v>
       </c>
+      <c r="L28" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M28" s="13" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B29" s="13" t="n">
         <v>3.652185541007E12</v>
@@ -2378,18 +2494,24 @@
         <v>5.851593E12</v>
       </c>
       <c r="I29" s="13" t="n">
+        <v>5.700189E12</v>
+      </c>
+      <c r="J29" s="13" t="n">
+        <v>5.851593E12</v>
+      </c>
+      <c r="K29" s="13" t="n">
         <v>5.691533E12</v>
       </c>
-      <c r="J29" s="13" t="n">
+      <c r="L29" s="13" t="n">
         <v>5.678723E12</v>
       </c>
-      <c r="K29" s="13" t="n">
+      <c r="M29" s="13" t="n">
         <v>5.748318E12</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B30" s="13" t="n">
         <v>3.652185541007E12</v>
@@ -2410,18 +2532,24 @@
         <v>5.851593E12</v>
       </c>
       <c r="I30" s="13" t="n">
+        <v>5.700189E12</v>
+      </c>
+      <c r="J30" s="13" t="n">
+        <v>5.851593E12</v>
+      </c>
+      <c r="K30" s="13" t="n">
         <v>5.691533E12</v>
       </c>
-      <c r="J30" s="13" t="n">
+      <c r="L30" s="13" t="n">
         <v>5.678723E12</v>
       </c>
-      <c r="K30" s="13" t="n">
+      <c r="M30" s="13" t="n">
         <v>5.748318E12</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B31" s="13" t="n">
         <v>0.0</v>
@@ -2448,12 +2576,18 @@
         <v>0.0</v>
       </c>
       <c r="K31" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L31" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M31" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B32" s="13" t="n">
         <v>2.195221567051E12</v>
@@ -2474,18 +2608,24 @@
         <v>6.03788E11</v>
       </c>
       <c r="I32" s="13" t="n">
+        <v>1.678098E12</v>
+      </c>
+      <c r="J32" s="13" t="n">
+        <v>6.03788E11</v>
+      </c>
+      <c r="K32" s="13" t="n">
         <v>8.16685E11</v>
       </c>
-      <c r="J32" s="13" t="n">
+      <c r="L32" s="13" t="n">
         <v>8.02741E11</v>
       </c>
-      <c r="K32" s="13" t="n">
+      <c r="M32" s="13" t="n">
         <v>1.073368E12</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B33" s="13" t="n">
         <v>1.478231738897E12</v>
@@ -2506,18 +2646,24 @@
         <v>1.7664E11</v>
       </c>
       <c r="I33" s="13" t="n">
+        <v>2.60594E11</v>
+      </c>
+      <c r="J33" s="13" t="n">
+        <v>1.7664E11</v>
+      </c>
+      <c r="K33" s="13" t="n">
         <v>2.07583E11</v>
       </c>
-      <c r="J33" s="13" t="n">
+      <c r="L33" s="13" t="n">
         <v>2.38784E11</v>
       </c>
-      <c r="K33" s="13" t="n">
+      <c r="M33" s="13" t="n">
         <v>5.53036E11</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B34" s="13" t="n">
         <v>5.19486214655E11</v>
@@ -2538,18 +2684,24 @@
         <v>3.4853E11</v>
       </c>
       <c r="I34" s="13" t="n">
+        <v>1.338886E12</v>
+      </c>
+      <c r="J34" s="13" t="n">
+        <v>3.4853E11</v>
+      </c>
+      <c r="K34" s="13" t="n">
         <v>5.30484E11</v>
       </c>
-      <c r="J34" s="13" t="n">
+      <c r="L34" s="13" t="n">
         <v>4.85339E11</v>
       </c>
-      <c r="K34" s="13" t="n">
+      <c r="M34" s="13" t="n">
         <v>4.41715E11</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B35" s="13" t="n">
         <v>1.97465963499E11</v>
@@ -2576,12 +2728,18 @@
         <v>7.8618E10</v>
       </c>
       <c r="K35" s="13" t="n">
+        <v>7.8618E10</v>
+      </c>
+      <c r="L35" s="13" t="n">
+        <v>7.8618E10</v>
+      </c>
+      <c r="M35" s="13" t="n">
         <v>7.8617E10</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B36" s="13" t="n">
         <v>0.0</v>
@@ -2608,12 +2766,18 @@
         <v>0.0</v>
       </c>
       <c r="K36" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L36" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M36" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37" s="13" t="n">
         <v>3.765E7</v>
@@ -2642,10 +2806,16 @@
       <c r="K37" s="13" t="n">
         <v>0.0</v>
       </c>
+      <c r="L37" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M37" s="13" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B38" s="13" t="n">
         <v>2.2812469777332E13</v>
@@ -2666,18 +2836,24 @@
         <v>5.0975924E13</v>
       </c>
       <c r="I38" s="13" t="n">
+        <v>5.2562452E13</v>
+      </c>
+      <c r="J38" s="13" t="n">
+        <v>5.0975924E13</v>
+      </c>
+      <c r="K38" s="13" t="n">
         <v>5.2531234E13</v>
       </c>
-      <c r="J38" s="13" t="n">
+      <c r="L38" s="13" t="n">
         <v>4.7567998E13</v>
       </c>
-      <c r="K38" s="13" t="n">
+      <c r="M38" s="13" t="n">
         <v>5.7128863E13</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B39" s="13" t="n">
         <v>2.69673251283E11</v>
@@ -2698,18 +2874,24 @@
         <v>5.148499E12</v>
       </c>
       <c r="I39" s="13" t="n">
+        <v>5.671895E12</v>
+      </c>
+      <c r="J39" s="13" t="n">
+        <v>5.148499E12</v>
+      </c>
+      <c r="K39" s="13" t="n">
         <v>4.533495E12</v>
       </c>
-      <c r="J39" s="13" t="n">
+      <c r="L39" s="13" t="n">
         <v>2.22714E11</v>
       </c>
-      <c r="K39" s="13" t="n">
+      <c r="M39" s="13" t="n">
         <v>1.0406324E13</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B40" s="13" t="n">
         <v>0.0</v>
@@ -2736,12 +2918,18 @@
         <v>0.0</v>
       </c>
       <c r="K40" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L40" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M40" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B41" s="13" t="n">
         <v>0.0</v>
@@ -2768,12 +2956,18 @@
         <v>0.0</v>
       </c>
       <c r="K41" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L41" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M41" s="13" t="n">
         <v>9.646099E12</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B42" s="13" t="n">
         <v>0.0</v>
@@ -2800,12 +2994,18 @@
         <v>0.0</v>
       </c>
       <c r="K42" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L42" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M42" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B43" s="13" t="n">
         <v>0.0</v>
@@ -2832,12 +3032,18 @@
         <v>0.0</v>
       </c>
       <c r="K43" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L43" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M43" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B44" s="13" t="n">
         <v>2.65768843419E11</v>
@@ -2858,18 +3064,24 @@
         <v>4.879275E12</v>
       </c>
       <c r="I44" s="13" t="n">
+        <v>5.57E12</v>
+      </c>
+      <c r="J44" s="13" t="n">
+        <v>4.879275E12</v>
+      </c>
+      <c r="K44" s="13" t="n">
         <v>4.391E12</v>
       </c>
-      <c r="J44" s="13" t="n">
+      <c r="L44" s="13" t="n">
         <v>1.0E11</v>
       </c>
-      <c r="K44" s="13" t="n">
+      <c r="M44" s="13" t="n">
         <v>6.6E11</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B45" s="13" t="n">
         <v>3.904407864E9</v>
@@ -2890,18 +3102,24 @@
         <v>2.69224E11</v>
       </c>
       <c r="I45" s="13" t="n">
+        <v>1.01895E11</v>
+      </c>
+      <c r="J45" s="13" t="n">
+        <v>2.69224E11</v>
+      </c>
+      <c r="K45" s="13" t="n">
         <v>1.42495E11</v>
       </c>
-      <c r="J45" s="13" t="n">
+      <c r="L45" s="13" t="n">
         <v>1.22714E11</v>
       </c>
-      <c r="K45" s="13" t="n">
+      <c r="M45" s="13" t="n">
         <v>1.00225E11</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B46" s="13" t="n">
         <v>0.0</v>
@@ -2928,12 +3146,18 @@
         <v>0.0</v>
       </c>
       <c r="K46" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L46" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M46" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B47" s="13" t="n">
         <v>1.3128440463025E13</v>
@@ -2954,18 +3178,24 @@
         <v>3.3100808E13</v>
       </c>
       <c r="I47" s="13" t="n">
+        <v>3.7861777E13</v>
+      </c>
+      <c r="J47" s="13" t="n">
+        <v>3.3100808E13</v>
+      </c>
+      <c r="K47" s="13" t="n">
         <v>3.5352342E13</v>
       </c>
-      <c r="J47" s="13" t="n">
+      <c r="L47" s="13" t="n">
         <v>3.4779961E13</v>
       </c>
-      <c r="K47" s="13" t="n">
+      <c r="M47" s="13" t="n">
         <v>3.3751835E13</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B48" s="13" t="n">
         <v>1.2729101222248E13</v>
@@ -2986,18 +3216,24 @@
         <v>3.2070092E13</v>
       </c>
       <c r="I48" s="13" t="n">
+        <v>3.6733022E13</v>
+      </c>
+      <c r="J48" s="13" t="n">
+        <v>3.2070092E13</v>
+      </c>
+      <c r="K48" s="13" t="n">
         <v>3.4310785E13</v>
       </c>
-      <c r="J48" s="13" t="n">
+      <c r="L48" s="13" t="n">
         <v>3.3715381E13</v>
       </c>
-      <c r="K48" s="13" t="n">
+      <c r="M48" s="13" t="n">
         <v>3.2679695E13</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B49" s="13" t="n">
         <v>1.5165036110013E13</v>
@@ -3018,18 +3254,24 @@
         <v>4.4481428E13</v>
       </c>
       <c r="I49" s="13" t="n">
+        <v>4.7991351E13</v>
+      </c>
+      <c r="J49" s="13" t="n">
+        <v>4.4481428E13</v>
+      </c>
+      <c r="K49" s="13" t="n">
         <v>4.7319049E13</v>
       </c>
-      <c r="J49" s="13" t="n">
+      <c r="L49" s="13" t="n">
         <v>4.7456098E13</v>
       </c>
-      <c r="K49" s="13" t="n">
+      <c r="M49" s="13" t="n">
         <v>4.7127622E13</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B50" s="13" t="n">
         <v>-2.435934887765E12</v>
@@ -3050,18 +3292,24 @@
         <v>-1.2411336E13</v>
       </c>
       <c r="I50" s="13" t="n">
+        <v>-1.1258329E13</v>
+      </c>
+      <c r="J50" s="13" t="n">
+        <v>-1.2411336E13</v>
+      </c>
+      <c r="K50" s="13" t="n">
         <v>-1.3008264E13</v>
       </c>
-      <c r="J50" s="13" t="n">
+      <c r="L50" s="13" t="n">
         <v>-1.3740717E13</v>
       </c>
-      <c r="K50" s="13" t="n">
+      <c r="M50" s="13" t="n">
         <v>-1.4447927E13</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B51" s="13" t="n">
         <v>0.0</v>
@@ -3082,18 +3330,24 @@
         <v>2.87417E11</v>
       </c>
       <c r="I51" s="13" t="n">
+        <v>2.99355E11</v>
+      </c>
+      <c r="J51" s="13" t="n">
+        <v>2.87417E11</v>
+      </c>
+      <c r="K51" s="13" t="n">
         <v>2.81643E11</v>
       </c>
-      <c r="J51" s="13" t="n">
+      <c r="L51" s="13" t="n">
         <v>2.75739E11</v>
       </c>
-      <c r="K51" s="13" t="n">
+      <c r="M51" s="13" t="n">
         <v>2.6977E11</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B52" s="13" t="n">
         <v>0.0</v>
@@ -3122,10 +3376,16 @@
       <c r="K52" s="13" t="n">
         <v>3.46134E11</v>
       </c>
+      <c r="L52" s="13" t="n">
+        <v>3.46134E11</v>
+      </c>
+      <c r="M52" s="13" t="n">
+        <v>3.46134E11</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B53" s="13" t="n">
         <v>0.0</v>
@@ -3146,18 +3406,24 @@
         <v>-5.8717E10</v>
       </c>
       <c r="I53" s="13" t="n">
+        <v>-4.6779E10</v>
+      </c>
+      <c r="J53" s="13" t="n">
+        <v>-5.8717E10</v>
+      </c>
+      <c r="K53" s="13" t="n">
         <v>-6.4491E10</v>
       </c>
-      <c r="J53" s="13" t="n">
+      <c r="L53" s="13" t="n">
         <v>-7.0395E10</v>
       </c>
-      <c r="K53" s="13" t="n">
+      <c r="M53" s="13" t="n">
         <v>-7.6364E10</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B54" s="13" t="n">
         <v>3.99339240777E11</v>
@@ -3178,18 +3444,24 @@
         <v>7.43299E11</v>
       </c>
       <c r="I54" s="13" t="n">
+        <v>8.294E11</v>
+      </c>
+      <c r="J54" s="13" t="n">
+        <v>7.43299E11</v>
+      </c>
+      <c r="K54" s="13" t="n">
         <v>7.59914E11</v>
       </c>
-      <c r="J54" s="13" t="n">
+      <c r="L54" s="13" t="n">
         <v>7.88841E11</v>
       </c>
-      <c r="K54" s="13" t="n">
+      <c r="M54" s="13" t="n">
         <v>8.0237E11</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B55" s="13" t="n">
         <v>4.64908089811E11</v>
@@ -3210,18 +3482,24 @@
         <v>1.092752E12</v>
       </c>
       <c r="I55" s="13" t="n">
+        <v>1.149612E12</v>
+      </c>
+      <c r="J55" s="13" t="n">
+        <v>1.092752E12</v>
+      </c>
+      <c r="K55" s="13" t="n">
         <v>1.122399E12</v>
       </c>
-      <c r="J55" s="13" t="n">
+      <c r="L55" s="13" t="n">
         <v>1.166772E12</v>
       </c>
-      <c r="K55" s="13" t="n">
+      <c r="M55" s="13" t="n">
         <v>1.195083E12</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B56" s="13" t="n">
         <v>-6.5568849034E10</v>
@@ -3242,18 +3520,24 @@
         <v>-3.49453E11</v>
       </c>
       <c r="I56" s="13" t="n">
+        <v>-3.20212E11</v>
+      </c>
+      <c r="J56" s="13" t="n">
+        <v>-3.49453E11</v>
+      </c>
+      <c r="K56" s="13" t="n">
         <v>-3.62485E11</v>
       </c>
-      <c r="J56" s="13" t="n">
+      <c r="L56" s="13" t="n">
         <v>-3.77931E11</v>
       </c>
-      <c r="K56" s="13" t="n">
+      <c r="M56" s="13" t="n">
         <v>-3.92713E11</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B57" s="13" t="n">
         <v>0.0</v>
@@ -3280,12 +3564,18 @@
         <v>0.0</v>
       </c>
       <c r="K57" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L57" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M57" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B58" s="13" t="n">
         <v>5.59888245648E11</v>
@@ -3306,18 +3596,24 @@
         <v>5.79546E11</v>
       </c>
       <c r="I58" s="13" t="n">
+        <v>6.05906E11</v>
+      </c>
+      <c r="J58" s="13" t="n">
+        <v>5.79546E11</v>
+      </c>
+      <c r="K58" s="13" t="n">
         <v>5.7144E11</v>
       </c>
-      <c r="J58" s="13" t="n">
+      <c r="L58" s="13" t="n">
         <v>5.59912E11</v>
       </c>
-      <c r="K58" s="13" t="n">
+      <c r="M58" s="13" t="n">
         <v>5.5011E11</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B59" s="13" t="n">
         <v>5.72278312769E11</v>
@@ -3338,18 +3634,24 @@
         <v>7.87583E11</v>
       </c>
       <c r="I59" s="13" t="n">
+        <v>7.98215E11</v>
+      </c>
+      <c r="J59" s="13" t="n">
+        <v>7.87583E11</v>
+      </c>
+      <c r="K59" s="13" t="n">
         <v>7.87397E11</v>
       </c>
-      <c r="J59" s="13" t="n">
+      <c r="L59" s="13" t="n">
         <v>7.82074E11</v>
       </c>
-      <c r="K59" s="13" t="n">
+      <c r="M59" s="13" t="n">
         <v>7.79898E11</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B60" s="13" t="n">
         <v>-1.2390067121E10</v>
@@ -3370,18 +3672,24 @@
         <v>-2.08037E11</v>
       </c>
       <c r="I60" s="13" t="n">
+        <v>-1.92309E11</v>
+      </c>
+      <c r="J60" s="13" t="n">
+        <v>-2.08037E11</v>
+      </c>
+      <c r="K60" s="13" t="n">
         <v>-2.15957E11</v>
       </c>
-      <c r="J60" s="13" t="n">
+      <c r="L60" s="13" t="n">
         <v>-2.22162E11</v>
       </c>
-      <c r="K60" s="13" t="n">
+      <c r="M60" s="13" t="n">
         <v>-2.29788E11</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B61" s="13" t="n">
         <v>5.424026087917E12</v>
@@ -3402,18 +3710,24 @@
         <v>5.029426E12</v>
       </c>
       <c r="I61" s="13" t="n">
+        <v>4.914123E12</v>
+      </c>
+      <c r="J61" s="13" t="n">
+        <v>5.029426E12</v>
+      </c>
+      <c r="K61" s="13" t="n">
         <v>4.960479E12</v>
       </c>
-      <c r="J61" s="13" t="n">
+      <c r="L61" s="13" t="n">
         <v>4.815949E12</v>
       </c>
-      <c r="K61" s="13" t="n">
+      <c r="M61" s="13" t="n">
         <v>5.185337E12</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B62" s="13" t="n">
         <v>0.0</v>
@@ -3440,12 +3754,18 @@
         <v>0.0</v>
       </c>
       <c r="K62" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L62" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M62" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="14" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B63" s="13" t="n">
         <v>5.424026087917E12</v>
@@ -3466,18 +3786,24 @@
         <v>5.029426E12</v>
       </c>
       <c r="I63" s="13" t="n">
+        <v>4.914123E12</v>
+      </c>
+      <c r="J63" s="13" t="n">
+        <v>5.029426E12</v>
+      </c>
+      <c r="K63" s="13" t="n">
         <v>4.960479E12</v>
       </c>
-      <c r="J63" s="13" t="n">
+      <c r="L63" s="13" t="n">
         <v>4.815949E12</v>
       </c>
-      <c r="K63" s="13" t="n">
+      <c r="M63" s="13" t="n">
         <v>5.185337E12</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="16" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B64" s="13" t="n">
         <v>2.550247620484E12</v>
@@ -3498,18 +3824,24 @@
         <v>1.365834E12</v>
       </c>
       <c r="I64" s="13" t="n">
+        <v>1.244854E12</v>
+      </c>
+      <c r="J64" s="13" t="n">
+        <v>1.365834E12</v>
+      </c>
+      <c r="K64" s="13" t="n">
         <v>1.435403E12</v>
       </c>
-      <c r="J64" s="13" t="n">
+      <c r="L64" s="13" t="n">
         <v>1.623732E12</v>
       </c>
-      <c r="K64" s="13" t="n">
+      <c r="M64" s="13" t="n">
         <v>1.787467E12</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B65" s="13" t="n">
         <v>0.0</v>
@@ -3536,12 +3868,18 @@
         <v>0.0</v>
       </c>
       <c r="K65" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L65" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M65" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="14" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B66" s="13" t="n">
         <v>2.39461805793E12</v>
@@ -3570,10 +3908,16 @@
       <c r="K66" s="13" t="n">
         <v>0.0</v>
       </c>
+      <c r="L66" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M66" s="13" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B67" s="13" t="n">
         <v>1.55629562554E11</v>
@@ -3594,18 +3938,24 @@
         <v>1.365834E12</v>
       </c>
       <c r="I67" s="13" t="n">
+        <v>1.244854E12</v>
+      </c>
+      <c r="J67" s="13" t="n">
+        <v>1.365834E12</v>
+      </c>
+      <c r="K67" s="13" t="n">
         <v>1.435403E12</v>
       </c>
-      <c r="J67" s="13" t="n">
+      <c r="L67" s="13" t="n">
         <v>1.623732E12</v>
       </c>
-      <c r="K67" s="13" t="n">
+      <c r="M67" s="13" t="n">
         <v>1.787467E12</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B68" s="13" t="n">
         <v>0.0</v>
@@ -3634,10 +3984,16 @@
       <c r="K68" s="13" t="n">
         <v>0.0</v>
       </c>
+      <c r="L68" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M68" s="13" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B69" s="13" t="n">
         <v>0.0</v>
@@ -3666,10 +4022,16 @@
       <c r="K69" s="13" t="n">
         <v>0.0</v>
       </c>
+      <c r="L69" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M69" s="13" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B70" s="13" t="n">
         <v>0.0</v>
@@ -3696,12 +4058,18 @@
         <v>0.0</v>
       </c>
       <c r="K70" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L70" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M70" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="16" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B71" s="13" t="n">
         <v>8.80194108975E11</v>
@@ -3722,18 +4090,24 @@
         <v>5.751811E12</v>
       </c>
       <c r="I71" s="13" t="n">
+        <v>2.263897E12</v>
+      </c>
+      <c r="J71" s="13" t="n">
+        <v>5.751811E12</v>
+      </c>
+      <c r="K71" s="13" t="n">
         <v>5.678075E12</v>
       </c>
-      <c r="J71" s="13" t="n">
+      <c r="L71" s="13" t="n">
         <v>5.56573E12</v>
       </c>
-      <c r="K71" s="13" t="n">
+      <c r="M71" s="13" t="n">
         <v>5.44779E12</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B72" s="13" t="n">
         <v>5.7654113066E11</v>
@@ -3754,18 +4128,24 @@
         <v>6.94319E11</v>
       </c>
       <c r="I72" s="13" t="n">
+        <v>6.56032E11</v>
+      </c>
+      <c r="J72" s="13" t="n">
+        <v>6.94319E11</v>
+      </c>
+      <c r="K72" s="13" t="n">
         <v>7.54835E11</v>
       </c>
-      <c r="J72" s="13" t="n">
+      <c r="L72" s="13" t="n">
         <v>7.76573E11</v>
       </c>
-      <c r="K72" s="13" t="n">
+      <c r="M72" s="13" t="n">
         <v>7.92884E11</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B73" s="13" t="n">
         <v>3.2775033595E10</v>
@@ -3786,18 +4166,24 @@
         <v>1.3494E11</v>
       </c>
       <c r="I73" s="13" t="n">
+        <v>3.4432E10</v>
+      </c>
+      <c r="J73" s="13" t="n">
         <v>1.3494E11</v>
       </c>
-      <c r="J73" s="13" t="n">
+      <c r="K73" s="13" t="n">
+        <v>1.3494E11</v>
+      </c>
+      <c r="L73" s="13" t="n">
         <v>1.35108E11</v>
       </c>
-      <c r="K73" s="13" t="n">
+      <c r="M73" s="13" t="n">
         <v>1.35108E11</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B74" s="13" t="n">
         <v>0.0</v>
@@ -3824,12 +4210,18 @@
         <v>0.0</v>
       </c>
       <c r="K74" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L74" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M74" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B75" s="13" t="n">
         <v>0.0</v>
@@ -3858,10 +4250,16 @@
       <c r="K75" s="13" t="n">
         <v>0.0</v>
       </c>
+      <c r="L75" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M75" s="13" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B76" s="13" t="n">
         <v>2.7087794472E11</v>
@@ -3882,18 +4280,24 @@
         <v>4.922552E12</v>
       </c>
       <c r="I76" s="13" t="n">
+        <v>1.573433E12</v>
+      </c>
+      <c r="J76" s="13" t="n">
+        <v>4.922552E12</v>
+      </c>
+      <c r="K76" s="13" t="n">
         <v>4.7883E12</v>
       </c>
-      <c r="J76" s="13" t="n">
+      <c r="L76" s="13" t="n">
         <v>4.654049E12</v>
       </c>
-      <c r="K76" s="13" t="n">
+      <c r="M76" s="13" t="n">
         <v>4.519798E12</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B77" s="13" t="n">
         <v>3.6169679623169E13</v>
@@ -3914,18 +4318,24 @@
         <v>7.6483141E13</v>
       </c>
       <c r="I77" s="13" t="n">
+        <v>6.7617551E13</v>
+      </c>
+      <c r="J77" s="13" t="n">
+        <v>7.6483141E13</v>
+      </c>
+      <c r="K77" s="13" t="n">
         <v>7.8069279E13</v>
       </c>
-      <c r="J77" s="13" t="n">
+      <c r="L77" s="13" t="n">
         <v>7.7215154E13</v>
       </c>
-      <c r="K77" s="13" t="n">
+      <c r="M77" s="13" t="n">
         <v>8.8619507E13</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B78" s="13" t="n">
         <v>2.5642455816846E13</v>
@@ -3946,18 +4356,24 @@
         <v>4.4999176E13</v>
       </c>
       <c r="I78" s="13" t="n">
+        <v>3.6104692E13</v>
+      </c>
+      <c r="J78" s="13" t="n">
+        <v>4.4999176E13</v>
+      </c>
+      <c r="K78" s="13" t="n">
         <v>4.2482771E13</v>
       </c>
-      <c r="J78" s="13" t="n">
+      <c r="L78" s="13" t="n">
         <v>4.1460238E13</v>
       </c>
-      <c r="K78" s="13" t="n">
+      <c r="M78" s="13" t="n">
         <v>5.2695255E13</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B79" s="13" t="n">
         <v>1.8422328249592E13</v>
@@ -3978,18 +4394,24 @@
         <v>3.0403183E13</v>
       </c>
       <c r="I79" s="13" t="n">
+        <v>2.9850154E13</v>
+      </c>
+      <c r="J79" s="13" t="n">
+        <v>3.0403183E13</v>
+      </c>
+      <c r="K79" s="13" t="n">
         <v>2.7811594E13</v>
       </c>
-      <c r="J79" s="13" t="n">
+      <c r="L79" s="13" t="n">
         <v>2.7481402E13</v>
       </c>
-      <c r="K79" s="13" t="n">
+      <c r="M79" s="13" t="n">
         <v>2.6617592E13</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B80" s="13" t="n">
         <v>2.798053399285E12</v>
@@ -4010,18 +4432,24 @@
         <v>3.202092E12</v>
       </c>
       <c r="I80" s="13" t="n">
+        <v>2.801916E12</v>
+      </c>
+      <c r="J80" s="13" t="n">
+        <v>3.202092E12</v>
+      </c>
+      <c r="K80" s="13" t="n">
         <v>2.57056E12</v>
       </c>
-      <c r="J80" s="13" t="n">
+      <c r="L80" s="13" t="n">
         <v>2.266767E12</v>
       </c>
-      <c r="K80" s="13" t="n">
+      <c r="M80" s="13" t="n">
         <v>1.719221E12</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B81" s="13" t="n">
         <v>4.079356076277E12</v>
@@ -4042,18 +4470,24 @@
         <v>1.3573064E13</v>
       </c>
       <c r="I81" s="13" t="n">
+        <v>3.717636E12</v>
+      </c>
+      <c r="J81" s="13" t="n">
+        <v>1.3573064E13</v>
+      </c>
+      <c r="K81" s="13" t="n">
         <v>1.3211298E13</v>
       </c>
-      <c r="J81" s="13" t="n">
+      <c r="L81" s="13" t="n">
         <v>1.2931974E13</v>
       </c>
-      <c r="K81" s="13" t="n">
+      <c r="M81" s="13" t="n">
         <v>1.2687603E13</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B82" s="13" t="n">
         <v>5.0409584972E10</v>
@@ -4074,18 +4508,24 @@
         <v>2.186006E12</v>
       </c>
       <c r="I82" s="13" t="n">
+        <v>1.531171E12</v>
+      </c>
+      <c r="J82" s="13" t="n">
+        <v>2.186006E12</v>
+      </c>
+      <c r="K82" s="13" t="n">
         <v>1.051311E12</v>
       </c>
-      <c r="J82" s="13" t="n">
+      <c r="L82" s="13" t="n">
         <v>5.7846E11</v>
       </c>
-      <c r="K82" s="13" t="n">
+      <c r="M82" s="13" t="n">
         <v>7.87377E11</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B83" s="13" t="n">
         <v>9.6159350793E10</v>
@@ -4106,18 +4546,24 @@
         <v>1.693E9</v>
       </c>
       <c r="I83" s="13" t="n">
+        <v>7.737E9</v>
+      </c>
+      <c r="J83" s="13" t="n">
+        <v>1.693E9</v>
+      </c>
+      <c r="K83" s="13" t="n">
         <v>5.35E9</v>
       </c>
-      <c r="J83" s="13" t="n">
+      <c r="L83" s="13" t="n">
         <v>5.388E9</v>
       </c>
-      <c r="K83" s="13" t="n">
+      <c r="M83" s="13" t="n">
         <v>6.49E9</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="14" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B84" s="13" t="n">
         <v>2.960434486612E12</v>
@@ -4138,18 +4584,24 @@
         <v>2.647691E12</v>
       </c>
       <c r="I84" s="13" t="n">
+        <v>2.491596E12</v>
+      </c>
+      <c r="J84" s="13" t="n">
+        <v>2.647691E12</v>
+      </c>
+      <c r="K84" s="13" t="n">
         <v>2.389099E12</v>
       </c>
-      <c r="J84" s="13" t="n">
+      <c r="L84" s="13" t="n">
         <v>2.242807E12</v>
       </c>
-      <c r="K84" s="13" t="n">
+      <c r="M84" s="13" t="n">
         <v>1.887486E12</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B85" s="13" t="n">
         <v>0.0</v>
@@ -4176,12 +4628,18 @@
         <v>0.0</v>
       </c>
       <c r="K85" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L85" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M85" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="14" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B86" s="13" t="n">
         <v>0.0</v>
@@ -4208,12 +4666,18 @@
         <v>0.0</v>
       </c>
       <c r="K86" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L86" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M86" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B87" s="13" t="n">
         <v>8.03779426434E11</v>
@@ -4234,18 +4698,24 @@
         <v>1.24943E11</v>
       </c>
       <c r="I87" s="13" t="n">
+        <v>7.4365E10</v>
+      </c>
+      <c r="J87" s="13" t="n">
+        <v>1.24943E11</v>
+      </c>
+      <c r="K87" s="13" t="n">
         <v>9.5777E10</v>
       </c>
-      <c r="J87" s="13" t="n">
+      <c r="L87" s="13" t="n">
         <v>1.77869E11</v>
       </c>
-      <c r="K87" s="13" t="n">
+      <c r="M87" s="13" t="n">
         <v>3.50922E11</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="14" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B88" s="13" t="n">
         <v>4.115382190139E12</v>
@@ -4266,18 +4736,24 @@
         <v>5.207051E12</v>
       </c>
       <c r="I88" s="13" t="n">
+        <v>4.717309E12</v>
+      </c>
+      <c r="J88" s="13" t="n">
+        <v>5.207051E12</v>
+      </c>
+      <c r="K88" s="13" t="n">
         <v>5.81097E12</v>
       </c>
-      <c r="J88" s="13" t="n">
+      <c r="L88" s="13" t="n">
         <v>6.068211E12</v>
       </c>
-      <c r="K88" s="13" t="n">
+      <c r="M88" s="13" t="n">
         <v>5.92536E12</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="14" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B89" s="13" t="n">
         <v>3.517609978017E12</v>
@@ -4298,18 +4774,24 @@
         <v>3.459311E12</v>
       </c>
       <c r="I89" s="13" t="n">
+        <v>1.4507088E13</v>
+      </c>
+      <c r="J89" s="13" t="n">
+        <v>3.459311E12</v>
+      </c>
+      <c r="K89" s="13" t="n">
         <v>2.576699E12</v>
       </c>
-      <c r="J89" s="13" t="n">
+      <c r="L89" s="13" t="n">
         <v>3.176468E12</v>
       </c>
-      <c r="K89" s="13" t="n">
+      <c r="M89" s="13" t="n">
         <v>3.219675E12</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="14" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B90" s="13" t="n">
         <v>0.0</v>
@@ -4330,18 +4812,24 @@
         <v>0.0</v>
       </c>
       <c r="I90" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J90" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K90" s="13" t="n">
         <v>9.92E10</v>
       </c>
-      <c r="J90" s="13" t="n">
+      <c r="L90" s="13" t="n">
         <v>3.2127E10</v>
       </c>
-      <c r="K90" s="13" t="n">
+      <c r="M90" s="13" t="n">
         <v>3.2127E10</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="14" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B91" s="13" t="n">
         <v>1.143757063E9</v>
@@ -4362,18 +4850,24 @@
         <v>1.332E9</v>
       </c>
       <c r="I91" s="13" t="n">
+        <v>1.336E9</v>
+      </c>
+      <c r="J91" s="13" t="n">
+        <v>1.332E9</v>
+      </c>
+      <c r="K91" s="13" t="n">
         <v>1.33E9</v>
       </c>
-      <c r="J91" s="13" t="n">
+      <c r="L91" s="13" t="n">
         <v>1.331E9</v>
       </c>
-      <c r="K91" s="13" t="n">
+      <c r="M91" s="13" t="n">
         <v>1.331E9</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B92" s="13" t="n">
         <v>0.0</v>
@@ -4400,12 +4894,18 @@
         <v>0.0</v>
       </c>
       <c r="K92" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L92" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M92" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="14" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B93" s="13" t="n">
         <v>0.0</v>
@@ -4432,12 +4932,18 @@
         <v>0.0</v>
       </c>
       <c r="K93" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L93" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M93" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="16" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B94" s="13" t="n">
         <v>7.220127567254E12</v>
@@ -4458,18 +4964,24 @@
         <v>1.4595993E13</v>
       </c>
       <c r="I94" s="13" t="n">
+        <v>6.254538E12</v>
+      </c>
+      <c r="J94" s="13" t="n">
+        <v>1.4595993E13</v>
+      </c>
+      <c r="K94" s="13" t="n">
         <v>1.4671177E13</v>
       </c>
-      <c r="J94" s="13" t="n">
+      <c r="L94" s="13" t="n">
         <v>1.3978836E13</v>
       </c>
-      <c r="K94" s="13" t="n">
+      <c r="M94" s="13" t="n">
         <v>2.6077663E13</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="14" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B95" s="13" t="n">
         <v>0.0</v>
@@ -4496,12 +5008,18 @@
         <v>0.0</v>
       </c>
       <c r="K95" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L95" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M95" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="14" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B96" s="13" t="n">
         <v>0.0</v>
@@ -4528,12 +5046,18 @@
         <v>0.0</v>
       </c>
       <c r="K96" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L96" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M96" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="14" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B97" s="13" t="n">
         <v>0.0</v>
@@ -4560,12 +5084,18 @@
         <v>0.0</v>
       </c>
       <c r="K97" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L97" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M97" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="14" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B98" s="13" t="n">
         <v>0.0</v>
@@ -4592,12 +5122,18 @@
         <v>0.0</v>
       </c>
       <c r="K98" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L98" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M98" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B99" s="13" t="n">
         <v>0.0</v>
@@ -4624,12 +5160,18 @@
         <v>0.0</v>
       </c>
       <c r="K99" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L99" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M99" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="14" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B100" s="13" t="n">
         <v>5.505545963361E12</v>
@@ -4650,18 +5192,24 @@
         <v>4.78251E11</v>
       </c>
       <c r="I100" s="13" t="n">
+        <v>4.61013E11</v>
+      </c>
+      <c r="J100" s="13" t="n">
+        <v>4.78251E11</v>
+      </c>
+      <c r="K100" s="13" t="n">
         <v>4.79312E11</v>
       </c>
-      <c r="J100" s="13" t="n">
+      <c r="L100" s="13" t="n">
         <v>4.9565E11</v>
       </c>
-      <c r="K100" s="13" t="n">
+      <c r="M100" s="13" t="n">
         <v>5.24038E11</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="14" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B101" s="13" t="n">
         <v>1.00056400296E12</v>
@@ -4682,18 +5230,24 @@
         <v>3.652041E12</v>
       </c>
       <c r="I101" s="13" t="n">
+        <v>3.651173E12</v>
+      </c>
+      <c r="J101" s="13" t="n">
+        <v>3.652041E12</v>
+      </c>
+      <c r="K101" s="13" t="n">
         <v>3.657142E12</v>
       </c>
-      <c r="J101" s="13" t="n">
+      <c r="L101" s="13" t="n">
         <v>2.778908E12</v>
       </c>
-      <c r="K101" s="13" t="n">
+      <c r="M101" s="13" t="n">
         <v>1.5278288E13</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="14" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B102" s="13" t="n">
         <v>6.016E11</v>
@@ -4714,18 +5268,24 @@
         <v>9.414227E12</v>
       </c>
       <c r="I102" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J102" s="13" t="n">
+        <v>9.414227E12</v>
+      </c>
+      <c r="K102" s="13" t="n">
         <v>9.477721E12</v>
       </c>
-      <c r="J102" s="13" t="n">
+      <c r="L102" s="13" t="n">
         <v>9.712763E12</v>
       </c>
-      <c r="K102" s="13" t="n">
+      <c r="M102" s="13" t="n">
         <v>9.311706E12</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="14" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B103" s="13" t="n">
         <v>0.0</v>
@@ -4752,12 +5312,18 @@
         <v>0.0</v>
       </c>
       <c r="K103" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L103" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M103" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="14" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B104" s="13"/>
       <c r="C104" s="13"/>
@@ -4768,10 +5334,12 @@
       <c r="I104" s="13"/>
       <c r="J104" s="13"/>
       <c r="K104" s="13"/>
+      <c r="L104" s="13"/>
+      <c r="M104" s="13"/>
     </row>
     <row r="105">
       <c r="A105" s="14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B105" s="13" t="n">
         <v>1.12417600933E11</v>
@@ -4792,18 +5360,24 @@
         <v>1.051474E12</v>
       </c>
       <c r="I105" s="13" t="n">
+        <v>2.142352E12</v>
+      </c>
+      <c r="J105" s="13" t="n">
+        <v>1.051474E12</v>
+      </c>
+      <c r="K105" s="13" t="n">
         <v>1.024875E12</v>
       </c>
-      <c r="J105" s="13" t="n">
+      <c r="L105" s="13" t="n">
         <v>9.90539E11</v>
       </c>
-      <c r="K105" s="13" t="n">
+      <c r="M105" s="13" t="n">
         <v>9.62655E11</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="14" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B106" s="13" t="n">
         <v>0.0</v>
@@ -4830,12 +5404,18 @@
         <v>0.0</v>
       </c>
       <c r="K106" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L106" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M106" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B107" s="13" t="n">
         <v>0.0</v>
@@ -4856,18 +5436,24 @@
         <v>0.0</v>
       </c>
       <c r="I107" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J107" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K107" s="13" t="n">
         <v>3.2127E10</v>
       </c>
-      <c r="J107" s="13" t="n">
+      <c r="L107" s="13" t="n">
         <v>9.76E8</v>
       </c>
-      <c r="K107" s="13" t="n">
+      <c r="M107" s="13" t="n">
         <v>9.76E8</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="14" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B108" s="13" t="n">
         <v>0.0</v>
@@ -4894,12 +5480,18 @@
         <v>0.0</v>
       </c>
       <c r="K108" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L108" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M108" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="16" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B109" s="13" t="n">
         <v>1.0527223806323E13</v>
@@ -4920,18 +5512,24 @@
         <v>3.1483965E13</v>
       </c>
       <c r="I109" s="13" t="n">
+        <v>3.1512859E13</v>
+      </c>
+      <c r="J109" s="13" t="n">
+        <v>3.1483965E13</v>
+      </c>
+      <c r="K109" s="13" t="n">
         <v>3.5586508E13</v>
       </c>
-      <c r="J109" s="13" t="n">
+      <c r="L109" s="13" t="n">
         <v>3.5754916E13</v>
       </c>
-      <c r="K109" s="13" t="n">
+      <c r="M109" s="13" t="n">
         <v>3.5924252E13</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="16" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B110" s="13" t="n">
         <v>1.0527223806323E13</v>
@@ -4952,18 +5550,24 @@
         <v>3.1483965E13</v>
       </c>
       <c r="I110" s="13" t="n">
+        <v>3.1512859E13</v>
+      </c>
+      <c r="J110" s="13" t="n">
+        <v>3.1483965E13</v>
+      </c>
+      <c r="K110" s="13" t="n">
         <v>3.5586508E13</v>
       </c>
-      <c r="J110" s="13" t="n">
+      <c r="L110" s="13" t="n">
         <v>3.5754916E13</v>
       </c>
-      <c r="K110" s="13" t="n">
+      <c r="M110" s="13" t="n">
         <v>3.5924252E13</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="14" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B111" s="13" t="n">
         <v>6.98052131E12</v>
@@ -4984,18 +5588,24 @@
         <v>1.7232122E13</v>
       </c>
       <c r="I111" s="13" t="n">
-        <v>1.7933004E13</v>
+        <v>1.7232122E13</v>
       </c>
       <c r="J111" s="13" t="n">
-        <v>1.7933004E13</v>
+        <v>1.7232122E13</v>
       </c>
       <c r="K111" s="13" t="n">
         <v>1.7933004E13</v>
       </c>
+      <c r="L111" s="13" t="n">
+        <v>1.7933004E13</v>
+      </c>
+      <c r="M111" s="13" t="n">
+        <v>1.7933004E13</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="15" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B112" s="13" t="n">
         <v>5.90211719E12</v>
@@ -5016,18 +5626,24 @@
         <v>1.7232122E13</v>
       </c>
       <c r="I112" s="13" t="n">
-        <v>1.7933004E13</v>
+        <v>1.7232122E13</v>
       </c>
       <c r="J112" s="13" t="n">
-        <v>1.7933004E13</v>
+        <v>1.7232122E13</v>
       </c>
       <c r="K112" s="13" t="n">
         <v>1.7933004E13</v>
       </c>
+      <c r="L112" s="13" t="n">
+        <v>1.7933004E13</v>
+      </c>
+      <c r="M112" s="13" t="n">
+        <v>1.7933004E13</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="15" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B113" s="13" t="n">
         <v>0.0</v>
@@ -5054,12 +5670,18 @@
         <v>0.0</v>
       </c>
       <c r="K113" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L113" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M113" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="14" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B114" s="13" t="n">
         <v>3.538404717E12</v>
@@ -5080,18 +5702,24 @@
         <v>1.1389128E13</v>
       </c>
       <c r="I114" s="13" t="n">
-        <v>1.5686884E13</v>
+        <v>1.1389128E13</v>
       </c>
       <c r="J114" s="13" t="n">
-        <v>1.5686884E13</v>
+        <v>1.1389128E13</v>
       </c>
       <c r="K114" s="13" t="n">
         <v>1.5686884E13</v>
       </c>
+      <c r="L114" s="13" t="n">
+        <v>1.5686884E13</v>
+      </c>
+      <c r="M114" s="13" t="n">
+        <v>1.5686884E13</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="14" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B115" s="13" t="n">
         <v>0.0</v>
@@ -5118,12 +5746,18 @@
         <v>0.0</v>
       </c>
       <c r="K115" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L115" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M115" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="14" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B116" s="13" t="n">
         <v>0.0</v>
@@ -5150,12 +5784,18 @@
         <v>0.0</v>
       </c>
       <c r="K116" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L116" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M116" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B117" s="13" t="n">
         <v>0.0</v>
@@ -5182,12 +5822,18 @@
         <v>0.0</v>
       </c>
       <c r="K117" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L117" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M117" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B118" s="13" t="n">
         <v>0.0</v>
@@ -5214,12 +5860,18 @@
         <v>0.0</v>
       </c>
       <c r="K118" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L118" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M118" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="14" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B119" s="13" t="n">
         <v>0.0</v>
@@ -5246,12 +5898,18 @@
         <v>0.0</v>
       </c>
       <c r="K119" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L119" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M119" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="14" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B120" s="13" t="n">
         <v>1.0994494E10</v>
@@ -5280,10 +5938,16 @@
       <c r="K120" s="13" t="n">
         <v>2.177E9</v>
       </c>
+      <c r="L120" s="13" t="n">
+        <v>2.177E9</v>
+      </c>
+      <c r="M120" s="13" t="n">
+        <v>2.177E9</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B121" s="13" t="n">
         <v>0.0</v>
@@ -5310,12 +5974,18 @@
         <v>0.0</v>
       </c>
       <c r="K121" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L121" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M121" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="14" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B122" s="13" t="n">
         <v>0.0</v>
@@ -5342,12 +6012,18 @@
         <v>0.0</v>
       </c>
       <c r="K122" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L122" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M122" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="14" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B123" s="13" t="n">
         <v>-2.83657456358E11</v>
@@ -5368,18 +6044,24 @@
         <v>-2.13406E11</v>
       </c>
       <c r="I123" s="13" t="n">
-        <v>-1.199952E12</v>
+        <v>-2.13406E11</v>
       </c>
       <c r="J123" s="13" t="n">
-        <v>-1.199952E12</v>
+        <v>-2.13406E11</v>
       </c>
       <c r="K123" s="13" t="n">
         <v>-1.199952E12</v>
       </c>
+      <c r="L123" s="13" t="n">
+        <v>-1.199952E12</v>
+      </c>
+      <c r="M123" s="13" t="n">
+        <v>-1.199952E12</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B124" s="13" t="n">
         <v>8.6173614006E10</v>
@@ -5400,18 +6082,24 @@
         <v>3.071173E12</v>
       </c>
       <c r="I124" s="13" t="n">
+        <v>3.10018E12</v>
+      </c>
+      <c r="J124" s="13" t="n">
+        <v>3.071173E12</v>
+      </c>
+      <c r="K124" s="13" t="n">
         <v>3.161507E12</v>
       </c>
-      <c r="J124" s="13" t="n">
+      <c r="L124" s="13" t="n">
         <v>3.329877E12</v>
       </c>
-      <c r="K124" s="13" t="n">
+      <c r="M124" s="13" t="n">
         <v>3.499168E12</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="15" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B125" s="13" t="n">
         <v>-5.1681637116E11</v>
@@ -5432,18 +6120,24 @@
         <v>5.21449E11</v>
       </c>
       <c r="I125" s="13" t="n">
-        <v>3.071173E12</v>
+        <v>5.21449E11</v>
       </c>
       <c r="J125" s="13" t="n">
-        <v>3.071173E12</v>
+        <v>5.21449E11</v>
       </c>
       <c r="K125" s="13" t="n">
         <v>3.071173E12</v>
       </c>
+      <c r="L125" s="13" t="n">
+        <v>3.071173E12</v>
+      </c>
+      <c r="M125" s="13" t="n">
+        <v>3.071173E12</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="15" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B126" s="13" t="n">
         <v>6.02989985166E11</v>
@@ -5464,18 +6158,24 @@
         <v>2.549724E12</v>
       </c>
       <c r="I126" s="13" t="n">
+        <v>2.578731E12</v>
+      </c>
+      <c r="J126" s="13" t="n">
+        <v>2.549724E12</v>
+      </c>
+      <c r="K126" s="13" t="n">
         <v>9.0334E10</v>
       </c>
-      <c r="J126" s="13" t="n">
+      <c r="L126" s="13" t="n">
         <v>2.58704E11</v>
       </c>
-      <c r="K126" s="13" t="n">
+      <c r="M126" s="13" t="n">
         <v>4.27995E11</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="14" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B127" s="13" t="n">
         <v>1.94787127675E11</v>
@@ -5496,18 +6196,24 @@
         <v>2.771E9</v>
       </c>
       <c r="I127" s="13" t="n">
+        <v>2.658E9</v>
+      </c>
+      <c r="J127" s="13" t="n">
+        <v>2.771E9</v>
+      </c>
+      <c r="K127" s="13" t="n">
         <v>2.888E9</v>
       </c>
-      <c r="J127" s="13" t="n">
+      <c r="L127" s="13" t="n">
         <v>2.926E9</v>
       </c>
-      <c r="K127" s="13" t="n">
+      <c r="M127" s="13" t="n">
         <v>2.971E9</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="16" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B128" s="13" t="n">
         <v>0.0</v>
@@ -5534,12 +6240,18 @@
         <v>0.0</v>
       </c>
       <c r="K128" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L128" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M128" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="16" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B129" s="13" t="n">
         <v>0.0</v>
@@ -5566,12 +6278,18 @@
         <v>0.0</v>
       </c>
       <c r="K129" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L129" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M129" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="14" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B130" s="13" t="n">
         <v>0.0</v>
@@ -5598,12 +6316,18 @@
         <v>0.0</v>
       </c>
       <c r="K130" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L130" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M130" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="14" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B131" s="13" t="n">
         <v>0.0</v>
@@ -5630,12 +6354,18 @@
         <v>0.0</v>
       </c>
       <c r="K131" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L131" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M131" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="16" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B132" s="13" t="n">
         <v>0.0</v>
@@ -5662,12 +6392,18 @@
         <v>0.0</v>
       </c>
       <c r="K132" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L132" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M132" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="16" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B133" s="13" t="n">
         <v>3.6169679623169E13</v>
@@ -5688,12 +6424,18 @@
         <v>7.6483141E13</v>
       </c>
       <c r="I133" s="13" t="n">
+        <v>6.7617551E13</v>
+      </c>
+      <c r="J133" s="13" t="n">
+        <v>7.6483141E13</v>
+      </c>
+      <c r="K133" s="13" t="n">
         <v>7.8069279E13</v>
       </c>
-      <c r="J133" s="13" t="n">
+      <c r="L133" s="13" t="n">
         <v>7.7215154E13</v>
       </c>
-      <c r="K133" s="13" t="n">
+      <c r="M133" s="13" t="n">
         <v>8.8619507E13</v>
       </c>
     </row>
@@ -5735,7 +6477,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B10:G10"/>
-    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I10:M10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A139" r:id="rId1" display="https://www.vietcap.com.vn/" xr:uid="{BC241E6B-908A-9A48-BD72-61B8A652B0D4}"/>
@@ -5749,7 +6491,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC84FBE-342B-144C-9AE6-BA977881A664}">
-  <dimension ref="A1:M44"/>
+  <dimension ref="A1:O44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -5770,6 +6512,8 @@
     <col min="11" max="11" width="19.19921875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="19.19921875" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="19.19921875" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="19.19921875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="19.19921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5838,13 +6582,13 @@
         <v>2024.0</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="L11" s="6" t="s">
         <v>17</v>
@@ -5852,10 +6596,16 @@
       <c r="M11" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="N11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="20" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B12" s="17" t="n">
         <v>1.8763420819288E13</v>
@@ -5879,21 +6629,27 @@
         <v>1.682514E12</v>
       </c>
       <c r="J12" s="17" t="n">
+        <v>5.034196E12</v>
+      </c>
+      <c r="K12" s="17" t="n">
         <v>5.237147E12</v>
       </c>
-      <c r="K12" s="17" t="n">
+      <c r="L12" s="17" t="n">
+        <v>2.434319E12</v>
+      </c>
+      <c r="M12" s="17" t="n">
         <v>2.973152E12</v>
       </c>
-      <c r="L12" s="17" t="n">
+      <c r="N12" s="17" t="n">
         <v>2.946477E12</v>
       </c>
-      <c r="M12" s="17" t="n">
+      <c r="O12" s="17" t="n">
         <v>3.111001E12</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="20" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B13" s="17" t="n">
         <v>-1.0101289478E10</v>
@@ -5917,21 +6673,27 @@
         <v>-7.69E8</v>
       </c>
       <c r="J13" s="17" t="n">
+        <v>-4.52E9</v>
+      </c>
+      <c r="K13" s="17" t="n">
         <v>-5.896E9</v>
       </c>
-      <c r="K13" s="17" t="n">
+      <c r="L13" s="17" t="n">
+        <v>-8.42E8</v>
+      </c>
+      <c r="M13" s="17" t="n">
         <v>-2.506E9</v>
       </c>
-      <c r="L13" s="17" t="n">
+      <c r="N13" s="17" t="n">
         <v>-4.627E9</v>
       </c>
-      <c r="M13" s="17" t="n">
+      <c r="O13" s="17" t="n">
         <v>-9.897E9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="20" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B14" s="17" t="n">
         <v>1.875331952981E13</v>
@@ -5955,21 +6717,27 @@
         <v>1.681745E12</v>
       </c>
       <c r="J14" s="17" t="n">
+        <v>5.029676E12</v>
+      </c>
+      <c r="K14" s="17" t="n">
         <v>5.231251E12</v>
       </c>
-      <c r="K14" s="17" t="n">
+      <c r="L14" s="17" t="n">
+        <v>2.433477E12</v>
+      </c>
+      <c r="M14" s="17" t="n">
         <v>2.970646E12</v>
       </c>
-      <c r="L14" s="17" t="n">
+      <c r="N14" s="17" t="n">
         <v>2.94185E12</v>
       </c>
-      <c r="M14" s="17" t="n">
+      <c r="O14" s="17" t="n">
         <v>3.101104E12</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="20" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B15" s="17" t="n">
         <v>-1.4512063748189E13</v>
@@ -5993,21 +6761,27 @@
         <v>-1.435789E12</v>
       </c>
       <c r="J15" s="17" t="n">
+        <v>-3.612051E12</v>
+      </c>
+      <c r="K15" s="17" t="n">
         <v>-4.522426E12</v>
       </c>
-      <c r="K15" s="17" t="n">
+      <c r="L15" s="17" t="n">
+        <v>-1.942803E12</v>
+      </c>
+      <c r="M15" s="17" t="n">
         <v>-2.153007E12</v>
       </c>
-      <c r="L15" s="17" t="n">
+      <c r="N15" s="17" t="n">
         <v>-2.174196E12</v>
       </c>
-      <c r="M15" s="17" t="n">
+      <c r="O15" s="17" t="n">
         <v>-2.281643E12</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="20" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B16" s="17" t="n">
         <v>4.241255781621E12</v>
@@ -6031,21 +6805,27 @@
         <v>2.45956E11</v>
       </c>
       <c r="J16" s="17" t="n">
+        <v>1.417625E12</v>
+      </c>
+      <c r="K16" s="17" t="n">
         <v>7.08825E11</v>
       </c>
-      <c r="K16" s="17" t="n">
+      <c r="L16" s="17" t="n">
+        <v>4.90674E11</v>
+      </c>
+      <c r="M16" s="17" t="n">
         <v>8.17639E11</v>
       </c>
-      <c r="L16" s="17" t="n">
+      <c r="N16" s="17" t="n">
         <v>7.67654E11</v>
       </c>
-      <c r="M16" s="17" t="n">
+      <c r="O16" s="17" t="n">
         <v>8.19461E11</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="20" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B17" s="17" t="n">
         <v>3.84302005295E11</v>
@@ -6069,21 +6849,27 @@
         <v>3.264468E12</v>
       </c>
       <c r="J17" s="17" t="n">
+        <v>2.8285E10</v>
+      </c>
+      <c r="K17" s="17" t="n">
         <v>5.63293E11</v>
       </c>
-      <c r="K17" s="17" t="n">
+      <c r="L17" s="17" t="n">
+        <v>4.08275E11</v>
+      </c>
+      <c r="M17" s="17" t="n">
         <v>5.14555E11</v>
       </c>
-      <c r="L17" s="17" t="n">
+      <c r="N17" s="17" t="n">
         <v>4.75386E11</v>
       </c>
-      <c r="M17" s="17" t="n">
+      <c r="O17" s="17" t="n">
         <v>4.98999E11</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="20" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B18" s="17" t="n">
         <v>-5.05619988173E11</v>
@@ -6107,21 +6893,27 @@
         <v>-5.09254E11</v>
       </c>
       <c r="J18" s="17" t="n">
+        <v>-4.7219E11</v>
+      </c>
+      <c r="K18" s="17" t="n">
         <v>-2.62378E11</v>
       </c>
-      <c r="K18" s="17" t="n">
+      <c r="L18" s="17" t="n">
+        <v>-4.96509E11</v>
+      </c>
+      <c r="M18" s="17" t="n">
         <v>-4.29204E11</v>
       </c>
-      <c r="L18" s="17" t="n">
+      <c r="N18" s="17" t="n">
         <v>-5.12514E11</v>
       </c>
-      <c r="M18" s="17" t="n">
+      <c r="O18" s="17" t="n">
         <v>-4.9979E11</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="18" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B19" s="17" t="n">
         <v>-3.54100871406E11</v>
@@ -6145,21 +6937,27 @@
         <v>-2.34939E11</v>
       </c>
       <c r="J19" s="17" t="n">
+        <v>-2.18797E11</v>
+      </c>
+      <c r="K19" s="17" t="n">
         <v>-3.92834E11</v>
       </c>
-      <c r="K19" s="17" t="n">
+      <c r="L19" s="17" t="n">
+        <v>-4.79211E11</v>
+      </c>
+      <c r="M19" s="17" t="n">
         <v>-2.92265E11</v>
       </c>
-      <c r="L19" s="17" t="n">
+      <c r="N19" s="17" t="n">
         <v>-2.86584E11</v>
       </c>
-      <c r="M19" s="17" t="n">
+      <c r="O19" s="17" t="n">
         <v>-3.06579E11</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="20" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B20" s="17" t="n">
         <v>-3.860547453E10</v>
@@ -6194,10 +6992,16 @@
       <c r="M20" s="17" t="n">
         <v>0.0</v>
       </c>
+      <c r="N20" s="17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O20" s="17" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="20" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B21" s="17" t="n">
         <v>-1.982562786983E12</v>
@@ -6221,21 +7025,27 @@
         <v>-1.015E11</v>
       </c>
       <c r="J21" s="17" t="n">
+        <v>-1.42942E11</v>
+      </c>
+      <c r="K21" s="17" t="n">
         <v>-1.71145E11</v>
       </c>
-      <c r="K21" s="17" t="n">
+      <c r="L21" s="17" t="n">
+        <v>-2.01982E11</v>
+      </c>
+      <c r="M21" s="17" t="n">
         <v>-2.23576E11</v>
       </c>
-      <c r="L21" s="17" t="n">
+      <c r="N21" s="17" t="n">
         <v>-4.2149E10</v>
       </c>
-      <c r="M21" s="17" t="n">
+      <c r="O21" s="17" t="n">
         <v>-2.17317E11</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="20" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B22" s="17" t="n">
         <v>-1.039528847044E12</v>
@@ -6259,21 +7069,27 @@
         <v>-3.2447E11</v>
       </c>
       <c r="J22" s="17" t="n">
+        <v>-4.40144E11</v>
+      </c>
+      <c r="K22" s="17" t="n">
         <v>-2.06017E11</v>
       </c>
-      <c r="K22" s="17" t="n">
+      <c r="L22" s="17" t="n">
+        <v>-6.93847E11</v>
+      </c>
+      <c r="M22" s="17" t="n">
         <v>-4.51068E11</v>
       </c>
-      <c r="L22" s="17" t="n">
+      <c r="N22" s="17" t="n">
         <v>-4.82735E11</v>
       </c>
-      <c r="M22" s="17" t="n">
+      <c r="O22" s="17" t="n">
         <v>-4.56226E11</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="20" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B23" s="17" t="n">
         <v>1.059240690186E12</v>
@@ -6297,21 +7113,27 @@
         <v>2.5752E12</v>
       </c>
       <c r="J23" s="17" t="n">
+        <v>3.90634E11</v>
+      </c>
+      <c r="K23" s="17" t="n">
         <v>6.32578E11</v>
       </c>
-      <c r="K23" s="17" t="n">
+      <c r="L23" s="17" t="n">
+        <v>-4.93389E11</v>
+      </c>
+      <c r="M23" s="17" t="n">
         <v>2.28346E11</v>
       </c>
-      <c r="L23" s="17" t="n">
+      <c r="N23" s="17" t="n">
         <v>2.05642E11</v>
       </c>
-      <c r="M23" s="17" t="n">
+      <c r="O23" s="17" t="n">
         <v>1.45127E11</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="20" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B24" s="17" t="n">
         <v>-5.940946254E9</v>
@@ -6335,21 +7157,27 @@
         <v>-3.688E10</v>
       </c>
       <c r="J24" s="17" t="n">
+        <v>-2.395E10</v>
+      </c>
+      <c r="K24" s="17" t="n">
         <v>-3.2291E10</v>
       </c>
-      <c r="K24" s="17" t="n">
+      <c r="L24" s="17" t="n">
+        <v>-7.1648E10</v>
+      </c>
+      <c r="M24" s="17" t="n">
         <v>-6.0934E10</v>
       </c>
-      <c r="L24" s="17" t="n">
+      <c r="N24" s="17" t="n">
         <v>7.648E9</v>
       </c>
-      <c r="M24" s="17" t="n">
+      <c r="O24" s="17" t="n">
         <v>9.1E7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="18" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B25" s="17" t="n">
         <v>1.21678751454E11</v>
@@ -6373,21 +7201,27 @@
         <v>6.776E9</v>
       </c>
       <c r="J25" s="17" t="n">
+        <v>1.5755E10</v>
+      </c>
+      <c r="K25" s="17" t="n">
         <v>7.5318E10</v>
       </c>
-      <c r="K25" s="17" t="n">
+      <c r="L25" s="17" t="n">
+        <v>-4.9987E10</v>
+      </c>
+      <c r="M25" s="17" t="n">
         <v>5.7306E10</v>
       </c>
-      <c r="L25" s="17" t="n">
+      <c r="N25" s="17" t="n">
         <v>3.1345E10</v>
       </c>
-      <c r="M25" s="17" t="n">
+      <c r="O25" s="17" t="n">
         <v>9.777E9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="18" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B26" s="17" t="n">
         <v>-1.27619697708E11</v>
@@ -6411,21 +7245,27 @@
         <v>-4.3656E10</v>
       </c>
       <c r="J26" s="17" t="n">
+        <v>-3.9705E10</v>
+      </c>
+      <c r="K26" s="17" t="n">
         <v>-1.07609E11</v>
       </c>
-      <c r="K26" s="17" t="n">
+      <c r="L26" s="17" t="n">
+        <v>-2.1661E10</v>
+      </c>
+      <c r="M26" s="17" t="n">
         <v>-1.1824E11</v>
       </c>
-      <c r="L26" s="17" t="n">
+      <c r="N26" s="17" t="n">
         <v>-2.3697E10</v>
       </c>
-      <c r="M26" s="17" t="n">
+      <c r="O26" s="17" t="n">
         <v>-9.686E9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="20" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B27" s="17" t="n">
         <v>0.0</v>
@@ -6458,12 +7298,18 @@
         <v>0.0</v>
       </c>
       <c r="M27" s="17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N27" s="17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O27" s="17" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="20" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B28" s="17" t="n">
         <v>1.053299743932E12</v>
@@ -6487,21 +7333,27 @@
         <v>2.53832E12</v>
       </c>
       <c r="J28" s="17" t="n">
+        <v>3.66684E11</v>
+      </c>
+      <c r="K28" s="17" t="n">
         <v>6.00287E11</v>
       </c>
-      <c r="K28" s="17" t="n">
+      <c r="L28" s="17" t="n">
+        <v>-5.65037E11</v>
+      </c>
+      <c r="M28" s="17" t="n">
         <v>1.67412E11</v>
       </c>
-      <c r="L28" s="17" t="n">
+      <c r="N28" s="17" t="n">
         <v>2.1329E11</v>
       </c>
-      <c r="M28" s="17" t="n">
+      <c r="O28" s="17" t="n">
         <v>1.45218E11</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="20" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B29" s="17" t="n">
         <v>-7.2876381598E11</v>
@@ -6525,21 +7377,27 @@
         <v>-2.96326E11</v>
       </c>
       <c r="J29" s="17" t="n">
+        <v>-2.9785E10</v>
+      </c>
+      <c r="K29" s="17" t="n">
         <v>-9.4211E10</v>
       </c>
-      <c r="K29" s="17" t="n">
+      <c r="L29" s="17" t="n">
+        <v>3.0102E10</v>
+      </c>
+      <c r="M29" s="17" t="n">
         <v>-7.7026E10</v>
       </c>
-      <c r="L29" s="17" t="n">
+      <c r="N29" s="17" t="n">
         <v>-4.4882E10</v>
       </c>
-      <c r="M29" s="17" t="n">
+      <c r="O29" s="17" t="n">
         <v>2.4118E10</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B30" s="17" t="n">
         <v>-7.14893056701E11</v>
@@ -6563,21 +7421,27 @@
         <v>-2.44709E11</v>
       </c>
       <c r="J30" s="17" t="n">
+        <v>-2.19465E11</v>
+      </c>
+      <c r="K30" s="17" t="n">
         <v>-3.52864E11</v>
       </c>
-      <c r="K30" s="17" t="n">
+      <c r="L30" s="17" t="n">
+        <v>3.2969E10</v>
+      </c>
+      <c r="M30" s="17" t="n">
         <v>-1.03625E11</v>
       </c>
-      <c r="L30" s="17" t="n">
+      <c r="N30" s="17" t="n">
         <v>-7.9388E10</v>
       </c>
-      <c r="M30" s="17" t="n">
+      <c r="O30" s="17" t="n">
         <v>-3.767E9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="18" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B31" s="17" t="n">
         <v>-1.3870759279E10</v>
@@ -6601,21 +7465,27 @@
         <v>-5.1617E10</v>
       </c>
       <c r="J31" s="17" t="n">
+        <v>1.8968E11</v>
+      </c>
+      <c r="K31" s="17" t="n">
         <v>2.58653E11</v>
       </c>
-      <c r="K31" s="17" t="n">
+      <c r="L31" s="17" t="n">
+        <v>-2.867E9</v>
+      </c>
+      <c r="M31" s="17" t="n">
         <v>2.6599E10</v>
       </c>
-      <c r="L31" s="17" t="n">
+      <c r="N31" s="17" t="n">
         <v>3.4506E10</v>
       </c>
-      <c r="M31" s="17" t="n">
+      <c r="O31" s="17" t="n">
         <v>2.7885E10</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="20" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B32" s="17" t="n">
         <v>3.24535927952E11</v>
@@ -6639,21 +7509,27 @@
         <v>2.241994E12</v>
       </c>
       <c r="J32" s="17" t="n">
+        <v>3.36899E11</v>
+      </c>
+      <c r="K32" s="17" t="n">
         <v>5.06076E11</v>
       </c>
-      <c r="K32" s="17" t="n">
+      <c r="L32" s="17" t="n">
+        <v>-5.34935E11</v>
+      </c>
+      <c r="M32" s="17" t="n">
         <v>9.0386E10</v>
       </c>
-      <c r="L32" s="17" t="n">
+      <c r="N32" s="17" t="n">
         <v>1.68408E11</v>
       </c>
-      <c r="M32" s="17" t="n">
+      <c r="O32" s="17" t="n">
         <v>1.69336E11</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="20" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B33" s="17" t="n">
         <v>4.329810822E9</v>
@@ -6677,21 +7553,27 @@
         <v>1.0E7</v>
       </c>
       <c r="J33" s="17" t="n">
+        <v>1.52E8</v>
+      </c>
+      <c r="K33" s="17" t="n">
         <v>1.57E8</v>
       </c>
-      <c r="K33" s="17" t="n">
+      <c r="L33" s="17" t="n">
+        <v>-9000000.0</v>
+      </c>
+      <c r="M33" s="17" t="n">
         <v>5.2E7</v>
       </c>
-      <c r="L33" s="17" t="n">
+      <c r="N33" s="17" t="n">
         <v>3.8E7</v>
       </c>
-      <c r="M33" s="17" t="n">
+      <c r="O33" s="17" t="n">
         <v>4.5E7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="20" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B34" s="17" t="n">
         <v>3.2020611713E11</v>
@@ -6715,21 +7597,27 @@
         <v>2.241984E12</v>
       </c>
       <c r="J34" s="17" t="n">
+        <v>3.36747E11</v>
+      </c>
+      <c r="K34" s="17" t="n">
         <v>5.05919E11</v>
       </c>
-      <c r="K34" s="17" t="n">
+      <c r="L34" s="17" t="n">
+        <v>-5.34926E11</v>
+      </c>
+      <c r="M34" s="17" t="n">
         <v>9.0334E10</v>
       </c>
-      <c r="L34" s="17" t="n">
+      <c r="N34" s="17" t="n">
         <v>1.6837E11</v>
       </c>
-      <c r="M34" s="17" t="n">
+      <c r="O34" s="17" t="n">
         <v>1.69291E11</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="20" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B35" s="17" t="n">
         <v>836.0</v>
@@ -6753,21 +7641,27 @@
         <v>1422.0</v>
       </c>
       <c r="J35" s="17" t="n">
-        <v>0.0</v>
+        <v>141.0</v>
       </c>
       <c r="K35" s="17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L35" s="17" t="n">
+        <v>-330.0</v>
+      </c>
+      <c r="M35" s="17" t="n">
         <v>51.0</v>
       </c>
-      <c r="L35" s="17" t="n">
+      <c r="N35" s="17" t="n">
         <v>94.0</v>
       </c>
-      <c r="M35" s="17" t="n">
+      <c r="O35" s="17" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="20" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B36" s="17" t="n">
         <v>0.0</v>
@@ -6800,6 +7694,12 @@
         <v>0.0</v>
       </c>
       <c r="M36" s="17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N36" s="17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O36" s="17" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -6841,7 +7741,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B10:G10"/>
-    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="I10:O10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A42" r:id="rId1" display="https://www.vietcap.com.vn/" xr:uid="{2E2B9333-D71C-0347-A9BA-41353A177D7A}"/>
@@ -6855,7 +7755,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDF32B87-0276-EF4E-963C-ED48B34C3BF9}">
-  <dimension ref="A1:L60"/>
+  <dimension ref="A1:O60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -6873,8 +7773,11 @@
     <col min="8" max="8" customWidth="true" width="7.1640625"/>
     <col min="9" max="9" customWidth="true" width="20.3671875" bestFit="true"/>
     <col min="10" max="10" customWidth="true" width="19.19921875" bestFit="true"/>
-    <col min="11" max="11" width="19.19921875" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="20.3671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="20.3671875" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="19.19921875" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="19.19921875" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="19.19921875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="20.3671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6943,21 +7846,30 @@
         <v>2024.0</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>16</v>
       </c>
       <c r="K11" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="L11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="M11" s="6" t="s">
         <v>18</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="24" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B12" s="21" t="n">
         <v>1.053299743932E12</v>
@@ -6978,21 +7890,30 @@
         <v>2.940254E12</v>
       </c>
       <c r="I12" s="21" t="n">
+        <v>2.53832E12</v>
+      </c>
+      <c r="J12" s="21" t="n">
+        <v>3.66684E11</v>
+      </c>
+      <c r="K12" s="21" t="n">
         <v>6.00287E11</v>
       </c>
-      <c r="J12" s="21" t="n">
+      <c r="L12" s="21" t="n">
+        <v>-5.65037E11</v>
+      </c>
+      <c r="M12" s="21" t="n">
         <v>1.67412E11</v>
       </c>
-      <c r="K12" s="21" t="n">
+      <c r="N12" s="21" t="n">
         <v>2.1329E11</v>
       </c>
-      <c r="L12" s="21" t="n">
+      <c r="O12" s="21" t="n">
         <v>1.45219E11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="24" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B13" s="21" t="n">
         <v>6.94496792632E11</v>
@@ -7013,21 +7934,30 @@
         <v>3.426825E12</v>
       </c>
       <c r="I13" s="21" t="n">
+        <v>6.53403E11</v>
+      </c>
+      <c r="J13" s="21" t="n">
+        <v>9.30571E11</v>
+      </c>
+      <c r="K13" s="21" t="n">
         <v>9.24265E11</v>
       </c>
-      <c r="J13" s="21" t="n">
+      <c r="L13" s="21" t="n">
+        <v>9.18586E11</v>
+      </c>
+      <c r="M13" s="21" t="n">
         <v>9.22668E11</v>
       </c>
-      <c r="K13" s="21" t="n">
+      <c r="N13" s="21" t="n">
         <v>9.5984E11</v>
       </c>
-      <c r="L13" s="21" t="n">
+      <c r="O13" s="21" t="n">
         <v>8.83081E11</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="24" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B14" s="21" t="n">
         <v>0.0</v>
@@ -7057,12 +7987,21 @@
         <v>0.0</v>
       </c>
       <c r="L14" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M14" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N14" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O14" s="21" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="24" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B15" s="21" t="n">
         <v>7.50178646E8</v>
@@ -7083,21 +8022,30 @@
         <v>-2.3975E10</v>
       </c>
       <c r="I15" s="21" t="n">
+        <v>6.9E7</v>
+      </c>
+      <c r="J15" s="21" t="n">
+        <v>4.26E8</v>
+      </c>
+      <c r="K15" s="21" t="n">
         <v>-4.92E8</v>
       </c>
-      <c r="J15" s="21" t="n">
+      <c r="L15" s="21" t="n">
+        <v>-2.3978E10</v>
+      </c>
+      <c r="M15" s="21" t="n">
         <v>1.22076E11</v>
       </c>
-      <c r="K15" s="21" t="n">
+      <c r="N15" s="21" t="n">
         <v>-9.5704E10</v>
       </c>
-      <c r="L15" s="21" t="n">
+      <c r="O15" s="21" t="n">
         <v>-1.612E9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="24" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B16" s="21" t="n">
         <v>4.1285265295E10</v>
@@ -7118,21 +8066,30 @@
         <v>1.51702E11</v>
       </c>
       <c r="I16" s="21" t="n">
+        <v>2.28134E11</v>
+      </c>
+      <c r="J16" s="21" t="n">
+        <v>2.10243E11</v>
+      </c>
+      <c r="K16" s="21" t="n">
         <v>-5.75349E11</v>
       </c>
-      <c r="J16" s="21" t="n">
+      <c r="L16" s="21" t="n">
+        <v>2.88674E11</v>
+      </c>
+      <c r="M16" s="21" t="n">
         <v>7.489E10</v>
       </c>
-      <c r="K16" s="21" t="n">
+      <c r="N16" s="21" t="n">
         <v>1.8441E11</v>
       </c>
-      <c r="L16" s="21" t="n">
+      <c r="O16" s="21" t="n">
         <v>3.2882E10</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="24" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B17" s="21" t="n">
         <v>0.0</v>
@@ -7162,12 +8119,21 @@
         <v>0.0</v>
       </c>
       <c r="L17" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M17" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N17" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O17" s="21" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="24" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B18" s="21" t="n">
         <v>-3.03808165448E11</v>
@@ -7188,21 +8154,30 @@
         <v>-3.965564E12</v>
       </c>
       <c r="I18" s="21" t="n">
+        <v>-3.228252E12</v>
+      </c>
+      <c r="J18" s="21" t="n">
+        <v>1.7181E10</v>
+      </c>
+      <c r="K18" s="21" t="n">
         <v>-3.81111E11</v>
       </c>
-      <c r="J18" s="21" t="n">
+      <c r="L18" s="21" t="n">
+        <v>-3.73382E11</v>
+      </c>
+      <c r="M18" s="21" t="n">
         <v>-3.08255E11</v>
       </c>
-      <c r="K18" s="21" t="n">
+      <c r="N18" s="21" t="n">
         <v>-7.1742E11</v>
       </c>
-      <c r="L18" s="21" t="n">
+      <c r="O18" s="21" t="n">
         <v>-4.89159E11</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="24" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B19" s="21" t="n">
         <v>3.54100871406E11</v>
@@ -7223,21 +8198,30 @@
         <v>1.325781E12</v>
       </c>
       <c r="I19" s="21" t="n">
+        <v>2.34939E11</v>
+      </c>
+      <c r="J19" s="21" t="n">
+        <v>2.18797E11</v>
+      </c>
+      <c r="K19" s="21" t="n">
         <v>4.74366E11</v>
       </c>
-      <c r="J19" s="21" t="n">
+      <c r="L19" s="21" t="n">
+        <v>3.97679E11</v>
+      </c>
+      <c r="M19" s="21" t="n">
         <v>2.92265E11</v>
       </c>
-      <c r="K19" s="21" t="n">
+      <c r="N19" s="21" t="n">
         <v>2.86584E11</v>
       </c>
-      <c r="L19" s="21" t="n">
+      <c r="O19" s="21" t="n">
         <v>3.06579E11</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="24" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B20" s="21" t="n">
         <v>0.0</v>
@@ -7267,12 +8251,21 @@
         <v>0.0</v>
       </c>
       <c r="L20" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M20" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N20" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O20" s="21" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="24" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B21" s="21" t="n">
         <v>0.0</v>
@@ -7302,12 +8295,21 @@
         <v>0.0</v>
       </c>
       <c r="L21" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M21" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N21" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O21" s="21" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="24" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B22" s="21" t="n">
         <v>2.13826500946E11</v>
@@ -7328,21 +8330,30 @@
         <v>2.2408954E13</v>
       </c>
       <c r="I22" s="21" t="n">
+        <v>-4.4817E10</v>
+      </c>
+      <c r="J22" s="21" t="n">
+        <v>9.356654E12</v>
+      </c>
+      <c r="K22" s="21" t="n">
         <v>1.5366106E13</v>
       </c>
-      <c r="J22" s="21" t="n">
+      <c r="L22" s="21" t="n">
+        <v>-2.268989E12</v>
+      </c>
+      <c r="M22" s="21" t="n">
         <v>-2.177056E12</v>
       </c>
-      <c r="K22" s="21" t="n">
+      <c r="N22" s="21" t="n">
         <v>-7.31562E11</v>
       </c>
-      <c r="L22" s="21" t="n">
+      <c r="O22" s="21" t="n">
         <v>1.69621E11</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="22" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B23" s="21" t="n">
         <v>1.840124686463E12</v>
@@ -7363,21 +8374,30 @@
         <v>3.855023E12</v>
       </c>
       <c r="I23" s="21" t="n">
+        <v>4.26613E11</v>
+      </c>
+      <c r="J23" s="21" t="n">
+        <v>1.743902E12</v>
+      </c>
+      <c r="K23" s="21" t="n">
         <v>1.041966E12</v>
       </c>
-      <c r="J23" s="21" t="n">
+      <c r="L23" s="21" t="n">
+        <v>6.42542E11</v>
+      </c>
+      <c r="M23" s="21" t="n">
         <v>1.271056E12</v>
       </c>
-      <c r="K23" s="21" t="n">
+      <c r="N23" s="21" t="n">
         <v>8.31E11</v>
       </c>
-      <c r="L23" s="21" t="n">
+      <c r="O23" s="21" t="n">
         <v>8.7699E11</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="22" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B24" s="21" t="n">
         <v>-3.22344821826E11</v>
@@ -7398,21 +8418,30 @@
         <v>1.336928E12</v>
       </c>
       <c r="I24" s="21" t="n">
+        <v>3.45038E11</v>
+      </c>
+      <c r="J24" s="21" t="n">
+        <v>2.03042E11</v>
+      </c>
+      <c r="K24" s="21" t="n">
         <v>9.58159E11</v>
       </c>
-      <c r="J24" s="21" t="n">
+      <c r="L24" s="21" t="n">
+        <v>-1.69311E11</v>
+      </c>
+      <c r="M24" s="21" t="n">
         <v>3.6082E10</v>
       </c>
-      <c r="K24" s="21" t="n">
+      <c r="N24" s="21" t="n">
         <v>3.03527E11</v>
       </c>
-      <c r="L24" s="21" t="n">
+      <c r="O24" s="21" t="n">
         <v>-1.2011166E13</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="22" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B25" s="21" t="n">
         <v>2.320860001633E12</v>
@@ -7433,21 +8462,30 @@
         <v>5.67912E11</v>
       </c>
       <c r="I25" s="21" t="n">
+        <v>5.58456E11</v>
+      </c>
+      <c r="J25" s="21" t="n">
+        <v>2.40332E11</v>
+      </c>
+      <c r="K25" s="21" t="n">
         <v>1.4046E10</v>
       </c>
-      <c r="J25" s="21" t="n">
+      <c r="L25" s="21" t="n">
+        <v>-2.44922E11</v>
+      </c>
+      <c r="M25" s="21" t="n">
         <v>1.80224E11</v>
       </c>
-      <c r="K25" s="21" t="n">
+      <c r="N25" s="21" t="n">
         <v>-3.183E9</v>
       </c>
-      <c r="L25" s="21" t="n">
+      <c r="O25" s="21" t="n">
         <v>-6.9593E10</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="22" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B26" s="21" t="n">
         <v>-1.988397072176E12</v>
@@ -7468,21 +8506,30 @@
         <v>1.7786338E13</v>
       </c>
       <c r="I26" s="21" t="n">
+        <v>-1.091116E12</v>
+      </c>
+      <c r="J26" s="21" t="n">
+        <v>7.50768E12</v>
+      </c>
+      <c r="K26" s="21" t="n">
         <v>1.3671301E13</v>
       </c>
-      <c r="J26" s="21" t="n">
+      <c r="L26" s="21" t="n">
+        <v>-2.301527E12</v>
+      </c>
+      <c r="M26" s="21" t="n">
         <v>-3.121863E12</v>
       </c>
-      <c r="K26" s="21" t="n">
+      <c r="N26" s="21" t="n">
         <v>-1.006679E12</v>
       </c>
-      <c r="L26" s="21" t="n">
+      <c r="O26" s="21" t="n">
         <v>1.1890462E13</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="22" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B27" s="21" t="n">
         <v>-2.51275767495E11</v>
@@ -7503,21 +8550,30 @@
         <v>-3.279E9</v>
       </c>
       <c r="I27" s="21" t="n">
+        <v>1.10187E11</v>
+      </c>
+      <c r="J27" s="21" t="n">
+        <v>-1.65016E11</v>
+      </c>
+      <c r="K27" s="21" t="n">
         <v>-4.0844E10</v>
       </c>
-      <c r="J27" s="21" t="n">
+      <c r="L27" s="21" t="n">
+        <v>9.2394E10</v>
+      </c>
+      <c r="M27" s="21" t="n">
         <v>-4.3396E10</v>
       </c>
-      <c r="K27" s="21" t="n">
+      <c r="N27" s="21" t="n">
         <v>-5.2939E10</v>
       </c>
-      <c r="L27" s="21" t="n">
+      <c r="O27" s="21" t="n">
         <v>-3.30562E11</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="22" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B28" s="21" t="n">
         <v>0.0</v>
@@ -7549,10 +8605,19 @@
       <c r="L28" s="21" t="n">
         <v>0.0</v>
       </c>
+      <c r="M28" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N28" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O28" s="21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="22" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B29" s="21" t="n">
         <v>-1.28833550848E11</v>
@@ -7573,21 +8638,30 @@
         <v>-1.018441E12</v>
       </c>
       <c r="I29" s="21" t="n">
+        <v>-3.13931E11</v>
+      </c>
+      <c r="J29" s="21" t="n">
+        <v>-1.60161E11</v>
+      </c>
+      <c r="K29" s="21" t="n">
         <v>-2.80282E11</v>
       </c>
-      <c r="J29" s="21" t="n">
+      <c r="L29" s="21" t="n">
+        <v>-2.64067E11</v>
+      </c>
+      <c r="M29" s="21" t="n">
         <v>-3.83002E11</v>
       </c>
-      <c r="K29" s="21" t="n">
+      <c r="N29" s="21" t="n">
         <v>-1.64153E11</v>
       </c>
-      <c r="L29" s="21" t="n">
+      <c r="O29" s="21" t="n">
         <v>-1.85913E11</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="22" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B30" s="21" t="n">
         <v>-1.256306974805E12</v>
@@ -7608,21 +8682,30 @@
         <v>-1.15527E11</v>
       </c>
       <c r="I30" s="21" t="n">
+        <v>-8.0064E10</v>
+      </c>
+      <c r="J30" s="21" t="n">
+        <v>-1.3125E10</v>
+      </c>
+      <c r="K30" s="21" t="n">
         <v>1.76E9</v>
       </c>
-      <c r="J30" s="21" t="n">
+      <c r="L30" s="21" t="n">
+        <v>-2.4098E10</v>
+      </c>
+      <c r="M30" s="21" t="n">
         <v>-1.16157E11</v>
       </c>
-      <c r="K30" s="21" t="n">
+      <c r="N30" s="21" t="n">
         <v>-6.39135E11</v>
       </c>
-      <c r="L30" s="21" t="n">
+      <c r="O30" s="21" t="n">
         <v>-5.97E8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="22" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B31" s="21" t="n">
         <v>0.0</v>
@@ -7654,10 +8737,19 @@
       <c r="L31" s="21" t="n">
         <v>0.0</v>
       </c>
+      <c r="M31" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N31" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O31" s="21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="22" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B32" s="21" t="n">
         <v>0.0</v>
@@ -7687,12 +8779,21 @@
         <v>0.0</v>
       </c>
       <c r="L32" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M32" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N32" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O32" s="21" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="24" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B33" s="21" t="n">
         <v>2.495668654989E12</v>
@@ -7713,21 +8814,30 @@
         <v>-3.6275238E13</v>
       </c>
       <c r="I33" s="21" t="n">
+        <v>-1.7775164E13</v>
+      </c>
+      <c r="J33" s="21" t="n">
+        <v>-8.073303E12</v>
+      </c>
+      <c r="K33" s="21" t="n">
         <v>-1.3783435E13</v>
       </c>
-      <c r="J33" s="21" t="n">
+      <c r="L33" s="21" t="n">
+        <v>3.356664E12</v>
+      </c>
+      <c r="M33" s="21" t="n">
         <v>-2.577983E12</v>
       </c>
-      <c r="K33" s="21" t="n">
+      <c r="N33" s="21" t="n">
         <v>7.67633E11</v>
       </c>
-      <c r="L33" s="21" t="n">
+      <c r="O33" s="21" t="n">
         <v>3.645671E12</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="22" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B34" s="21" t="n">
         <v>-4.568206098038E12</v>
@@ -7748,21 +8858,30 @@
         <v>-3.533336E12</v>
       </c>
       <c r="I34" s="21" t="n">
+        <v>-1.436652E12</v>
+      </c>
+      <c r="J34" s="21" t="n">
+        <v>-3.70887E11</v>
+      </c>
+      <c r="K34" s="21" t="n">
         <v>-1.286263E12</v>
       </c>
-      <c r="J34" s="21" t="n">
+      <c r="L34" s="21" t="n">
+        <v>-4.39534E11</v>
+      </c>
+      <c r="M34" s="21" t="n">
         <v>-7.40643E11</v>
       </c>
-      <c r="K34" s="21" t="n">
+      <c r="N34" s="21" t="n">
         <v>-3.61713E11</v>
       </c>
-      <c r="L34" s="21" t="n">
+      <c r="O34" s="21" t="n">
         <v>-4.87993E11</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="22" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B35" s="21" t="n">
         <v>1.79732870506E11</v>
@@ -7783,21 +8902,30 @@
         <v>8.7694E10</v>
       </c>
       <c r="I35" s="21" t="n">
+        <v>8.834E9</v>
+      </c>
+      <c r="J35" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K35" s="21" t="n">
         <v>6.0504E10</v>
       </c>
-      <c r="J35" s="21" t="n">
+      <c r="L35" s="21" t="n">
+        <v>1.8356E10</v>
+      </c>
+      <c r="M35" s="21" t="n">
         <v>3.0773E10</v>
       </c>
-      <c r="K35" s="21" t="n">
+      <c r="N35" s="21" t="n">
         <v>2.65445E11</v>
       </c>
-      <c r="L35" s="21" t="n">
+      <c r="O35" s="21" t="n">
         <v>1.0953E10</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="22" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B36" s="21" t="n">
         <v>-1.0789448955618E13</v>
@@ -7818,21 +8946,30 @@
         <v>-2.7736834E13</v>
       </c>
       <c r="I36" s="21" t="n">
+        <v>-1.694283E12</v>
+      </c>
+      <c r="J36" s="21" t="n">
+        <v>-9.29876E12</v>
+      </c>
+      <c r="K36" s="21" t="n">
         <v>-2.275084E13</v>
       </c>
-      <c r="J36" s="21" t="n">
+      <c r="L36" s="21" t="n">
+        <v>6.007049E12</v>
+      </c>
+      <c r="M36" s="21" t="n">
         <v>-5.806264E12</v>
       </c>
-      <c r="K36" s="21" t="n">
+      <c r="N36" s="21" t="n">
         <v>-3.370146E12</v>
       </c>
-      <c r="L36" s="21" t="n">
+      <c r="O36" s="21" t="n">
         <v>-1.463455E12</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="22" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B37" s="21" t="n">
         <v>1.5901391768188E13</v>
@@ -7853,21 +8990,30 @@
         <v>1.0377704E13</v>
       </c>
       <c r="I37" s="21" t="n">
+        <v>7.65444E11</v>
+      </c>
+      <c r="J37" s="21" t="n">
+        <v>1.628826E12</v>
+      </c>
+      <c r="K37" s="21" t="n">
         <v>1.010122E13</v>
       </c>
-      <c r="J37" s="21" t="n">
+      <c r="L37" s="21" t="n">
+        <v>-2.117786E12</v>
+      </c>
+      <c r="M37" s="21" t="n">
         <v>5.582275E12</v>
       </c>
-      <c r="K37" s="21" t="n">
+      <c r="N37" s="21" t="n">
         <v>4.106587E12</v>
       </c>
-      <c r="L37" s="21" t="n">
+      <c r="O37" s="21" t="n">
         <v>5.7314E12</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="22" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B38" s="21" t="n">
         <v>-2.203324789548E12</v>
@@ -7888,21 +9034,30 @@
         <v>-1.6026266E13</v>
       </c>
       <c r="I38" s="21" t="n">
+        <v>-1.5824924E13</v>
+      </c>
+      <c r="J38" s="21" t="n">
+        <v>-3.3112E10</v>
+      </c>
+      <c r="K38" s="21" t="n">
         <v>-1.23644E11</v>
       </c>
-      <c r="J38" s="21" t="n">
+      <c r="L38" s="21" t="n">
+        <v>-4.4586E10</v>
+      </c>
+      <c r="M38" s="21" t="n">
         <v>-1.853787E12</v>
       </c>
-      <c r="K38" s="21" t="n">
+      <c r="N38" s="21" t="n">
         <v>-1.8833E11</v>
       </c>
-      <c r="L38" s="21" t="n">
+      <c r="O38" s="21" t="n">
         <v>-1.63735E11</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="22" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B39" s="21" t="n">
         <v>3.666565943663E12</v>
@@ -7923,21 +9078,30 @@
         <v>3.73818E11</v>
       </c>
       <c r="I39" s="21" t="n">
+        <v>3.72607E11</v>
+      </c>
+      <c r="J39" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K39" s="21" t="n">
         <v>-4.3403E10</v>
       </c>
-      <c r="J39" s="21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K39" s="21" t="n">
-        <v>0.0</v>
-      </c>
       <c r="L39" s="21" t="n">
+        <v>4.4614E10</v>
+      </c>
+      <c r="M39" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N39" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O39" s="21" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="22" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B40" s="21" t="n">
         <v>3.08957915836E11</v>
@@ -7958,21 +9122,30 @@
         <v>1.81982E11</v>
       </c>
       <c r="I40" s="21" t="n">
+        <v>3.381E10</v>
+      </c>
+      <c r="J40" s="21" t="n">
+        <v>6.3E8</v>
+      </c>
+      <c r="K40" s="21" t="n">
         <v>2.58991E11</v>
       </c>
-      <c r="J40" s="21" t="n">
+      <c r="L40" s="21" t="n">
+        <v>-1.11449E11</v>
+      </c>
+      <c r="M40" s="21" t="n">
         <v>2.09663E11</v>
       </c>
-      <c r="K40" s="21" t="n">
+      <c r="N40" s="21" t="n">
         <v>3.1579E11</v>
       </c>
-      <c r="L40" s="21" t="n">
+      <c r="O40" s="21" t="n">
         <v>1.8501E10</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="24" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B41" s="21" t="n">
         <v>-2.597573553066E12</v>
@@ -7993,21 +9166,30 @@
         <v>1.3701037E13</v>
       </c>
       <c r="I41" s="21" t="n">
+        <v>1.6445792E13</v>
+      </c>
+      <c r="J41" s="21" t="n">
+        <v>-1.356076E12</v>
+      </c>
+      <c r="K41" s="21" t="n">
         <v>-9.84551E11</v>
       </c>
-      <c r="J41" s="21" t="n">
+      <c r="L41" s="21" t="n">
+        <v>-4.04128E11</v>
+      </c>
+      <c r="M41" s="21" t="n">
         <v>4.010822E12</v>
       </c>
-      <c r="K41" s="21" t="n">
+      <c r="N41" s="21" t="n">
         <v>6.26827E11</v>
       </c>
-      <c r="L41" s="21" t="n">
+      <c r="O41" s="21" t="n">
         <v>-4.26007E11</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="22" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B42" s="21" t="n">
         <v>7.0E9</v>
@@ -8028,21 +9210,30 @@
         <v>1.5617006E13</v>
       </c>
       <c r="I42" s="21" t="n">
-        <v>0.0</v>
+        <v>1.5617006E13</v>
       </c>
       <c r="J42" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K42" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L42" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M42" s="21" t="n">
         <v>4.998638E12</v>
       </c>
-      <c r="K42" s="21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L42" s="21" t="n">
+      <c r="N42" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O42" s="21" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="22" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B43" s="21" t="n">
         <v>0.0</v>
@@ -8074,10 +9265,19 @@
       <c r="L43" s="21" t="n">
         <v>0.0</v>
       </c>
+      <c r="M43" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N43" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O43" s="21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="22" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B44" s="21" t="n">
         <v>1.533303870431E12</v>
@@ -8098,21 +9298,30 @@
         <v>1.4803388E13</v>
       </c>
       <c r="I44" s="21" t="n">
+        <v>1.354947E12</v>
+      </c>
+      <c r="J44" s="21" t="n">
+        <v>1.509106E12</v>
+      </c>
+      <c r="K44" s="21" t="n">
         <v>1.1351797E13</v>
       </c>
-      <c r="J44" s="21" t="n">
+      <c r="L44" s="21" t="n">
+        <v>5.87538E11</v>
+      </c>
+      <c r="M44" s="21" t="n">
         <v>1.450021E12</v>
       </c>
-      <c r="K44" s="21" t="n">
+      <c r="N44" s="21" t="n">
         <v>1.200169E12</v>
       </c>
-      <c r="L44" s="21" t="n">
+      <c r="O44" s="21" t="n">
         <v>1.465817E12</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="22" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B45" s="21" t="n">
         <v>-3.513254390021E12</v>
@@ -8133,21 +9342,30 @@
         <v>-1.6719357E13</v>
       </c>
       <c r="I45" s="21" t="n">
+        <v>-5.26161E11</v>
+      </c>
+      <c r="J45" s="21" t="n">
+        <v>-2.865182E12</v>
+      </c>
+      <c r="K45" s="21" t="n">
         <v>-1.2336348E13</v>
       </c>
-      <c r="J45" s="21" t="n">
+      <c r="L45" s="21" t="n">
+        <v>-9.91666E11</v>
+      </c>
+      <c r="M45" s="21" t="n">
         <v>-2.437837E12</v>
       </c>
-      <c r="K45" s="21" t="n">
+      <c r="N45" s="21" t="n">
         <v>-5.73342E11</v>
       </c>
-      <c r="L45" s="21" t="n">
+      <c r="O45" s="21" t="n">
         <v>-1.891824E12</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="22" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B46" s="21" t="n">
         <v>0.0</v>
@@ -8177,12 +9395,21 @@
         <v>0.0</v>
       </c>
       <c r="L46" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M46" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N46" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O46" s="21" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="22" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B47" s="21" t="n">
         <v>-6.24623033476E11</v>
@@ -8214,10 +9441,19 @@
       <c r="L47" s="21" t="n">
         <v>0.0</v>
       </c>
+      <c r="M47" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N47" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O47" s="21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="22" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B48" s="21" t="n">
         <v>0.0</v>
@@ -8247,12 +9483,21 @@
         <v>0.0</v>
       </c>
       <c r="L48" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M48" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N48" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O48" s="21" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="24" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B49" s="21" t="n">
         <v>1.11921602869E11</v>
@@ -8273,21 +9518,30 @@
         <v>-1.65247E11</v>
       </c>
       <c r="I49" s="21" t="n">
+        <v>-1.374189E12</v>
+      </c>
+      <c r="J49" s="21" t="n">
+        <v>-7.2725E10</v>
+      </c>
+      <c r="K49" s="21" t="n">
         <v>5.9812E11</v>
       </c>
-      <c r="J49" s="21" t="n">
+      <c r="L49" s="21" t="n">
+        <v>6.83547E11</v>
+      </c>
+      <c r="M49" s="21" t="n">
         <v>-7.44217E11</v>
       </c>
-      <c r="K49" s="21" t="n">
+      <c r="N49" s="21" t="n">
         <v>6.62898E11</v>
       </c>
-      <c r="L49" s="21" t="n">
+      <c r="O49" s="21" t="n">
         <v>3.389285E12</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="24" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B50" s="21" t="n">
         <v>1.813902878751E12</v>
@@ -8308,21 +9562,30 @@
         <v>2.056552E12</v>
       </c>
       <c r="I50" s="21" t="n">
+        <v>2.056552E12</v>
+      </c>
+      <c r="J50" s="21" t="n">
+        <v>6.86591E11</v>
+      </c>
+      <c r="K50" s="21" t="n">
         <v>6.1841E11</v>
       </c>
-      <c r="J50" s="21" t="n">
+      <c r="L50" s="21" t="n">
+        <v>1.208404E12</v>
+      </c>
+      <c r="M50" s="21" t="n">
         <v>1.889379E12</v>
       </c>
-      <c r="K50" s="21" t="n">
+      <c r="N50" s="21" t="n">
         <v>1.141683E12</v>
       </c>
-      <c r="L50" s="21" t="n">
+      <c r="O50" s="21" t="n">
         <v>1.806735E12</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="24" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B51" s="21" t="n">
         <v>0.0</v>
@@ -8343,21 +9606,30 @@
         <v>-1.926E9</v>
       </c>
       <c r="I51" s="21" t="n">
+        <v>4.228E9</v>
+      </c>
+      <c r="J51" s="21" t="n">
+        <v>4.544E9</v>
+      </c>
+      <c r="K51" s="21" t="n">
         <v>-8.126E9</v>
       </c>
-      <c r="J51" s="21" t="n">
+      <c r="L51" s="21" t="n">
+        <v>-2.572E9</v>
+      </c>
+      <c r="M51" s="21" t="n">
         <v>-3.479E9</v>
       </c>
-      <c r="K51" s="21" t="n">
+      <c r="N51" s="21" t="n">
         <v>2.154E9</v>
       </c>
-      <c r="L51" s="21" t="n">
+      <c r="O51" s="21" t="n">
         <v>2.568E9</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="24" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B52" s="21" t="n">
         <v>1.92582448162E12</v>
@@ -8378,15 +9650,24 @@
         <v>1.889379E12</v>
       </c>
       <c r="I52" s="21" t="n">
+        <v>6.86591E11</v>
+      </c>
+      <c r="J52" s="21" t="n">
+        <v>6.1841E11</v>
+      </c>
+      <c r="K52" s="21" t="n">
         <v>1.208404E12</v>
       </c>
-      <c r="J52" s="21" t="n">
+      <c r="L52" s="21" t="n">
+        <v>1.889379E12</v>
+      </c>
+      <c r="M52" s="21" t="n">
         <v>1.141683E12</v>
       </c>
-      <c r="K52" s="21" t="n">
+      <c r="N52" s="21" t="n">
         <v>1.806735E12</v>
       </c>
-      <c r="L52" s="21" t="n">
+      <c r="O52" s="21" t="n">
         <v>5.198588E12</v>
       </c>
     </row>
@@ -8428,7 +9709,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B10:G10"/>
-    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I10:O10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A58" r:id="rId1" display="https://www.vietcap.com.vn/" xr:uid="{2404128C-51EF-8E44-9BE0-4A8D207DD5D8}"/>
@@ -8442,7 +9723,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ACDB1F9-64B2-F64B-91A6-B0AAFF7D49C4}">
-  <dimension ref="A1:I176"/>
+  <dimension ref="A1:K176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -8459,7 +9740,8 @@
     <col min="7" max="7" customWidth="true" width="19.70703125" bestFit="true"/>
     <col min="8" max="8" customWidth="true" width="19.70703125" bestFit="true"/>
     <col min="9" max="9" customWidth="true" width="19.70703125" bestFit="true"/>
-    <col min="10" max="10" customWidth="true" width="14.33203125"/>
+    <col min="10" max="10" customWidth="true" width="19.70703125" bestFit="true"/>
+    <col min="11" max="11" width="19.70703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8530,10 +9812,16 @@
       <c r="I11" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="J11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="28" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B12" s="25" t="n">
         <v>1.92582448162E12</v>
@@ -8548,18 +9836,24 @@
         <v>1.889379E12</v>
       </c>
       <c r="G12" s="25" t="n">
+        <v>6.1841E11</v>
+      </c>
+      <c r="H12" s="25" t="n">
+        <v>1.889379E12</v>
+      </c>
+      <c r="I12" s="25" t="n">
         <v>1.141683E12</v>
       </c>
-      <c r="H12" s="25" t="n">
+      <c r="J12" s="25" t="n">
         <v>1.806735E12</v>
       </c>
-      <c r="I12" s="25" t="n">
+      <c r="K12" s="25" t="n">
         <v>5.198588E12</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="26" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B13" s="25" t="n">
         <v>1.9727883931E10</v>
@@ -8574,18 +9868,24 @@
         <v>1.0187E10</v>
       </c>
       <c r="G13" s="25" t="n">
+        <v>1.1398E10</v>
+      </c>
+      <c r="H13" s="25" t="n">
+        <v>1.0187E10</v>
+      </c>
+      <c r="I13" s="25" t="n">
         <v>9.061E9</v>
       </c>
-      <c r="H13" s="25" t="n">
+      <c r="J13" s="25" t="n">
         <v>1.0403E10</v>
       </c>
-      <c r="I13" s="25" t="n">
+      <c r="K13" s="25" t="n">
         <v>8.693E9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="26" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B14" s="25" t="n">
         <v>1.566705156229E12</v>
@@ -8600,18 +9900,24 @@
         <v>8.74674E11</v>
       </c>
       <c r="G14" s="25" t="n">
+        <v>5.29098E11</v>
+      </c>
+      <c r="H14" s="25" t="n">
+        <v>8.74674E11</v>
+      </c>
+      <c r="I14" s="25" t="n">
         <v>4.83105E11</v>
       </c>
-      <c r="H14" s="25" t="n">
+      <c r="J14" s="25" t="n">
         <v>1.152933E12</v>
       </c>
-      <c r="I14" s="25" t="n">
+      <c r="K14" s="25" t="n">
         <v>4.398217E12</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="26" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B15" s="25" t="n">
         <v>4.98222438E8</v>
@@ -8626,18 +9932,24 @@
         <v>4.518E9</v>
       </c>
       <c r="G15" s="25" t="n">
+        <v>7.7115E10</v>
+      </c>
+      <c r="H15" s="25" t="n">
+        <v>4.518E9</v>
+      </c>
+      <c r="I15" s="25" t="n">
         <v>2.9588E10</v>
       </c>
-      <c r="H15" s="25" t="n">
+      <c r="J15" s="25" t="n">
         <v>4.3399E10</v>
       </c>
-      <c r="I15" s="25" t="n">
+      <c r="K15" s="25" t="n">
         <v>1.0678E10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="26" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B16" s="25" t="n">
         <v>3.38893219022E11</v>
@@ -8652,18 +9964,24 @@
         <v>1.0E12</v>
       </c>
       <c r="G16" s="25" t="n">
+        <v>7.99E8</v>
+      </c>
+      <c r="H16" s="25" t="n">
+        <v>1.0E12</v>
+      </c>
+      <c r="I16" s="25" t="n">
         <v>6.19929E11</v>
       </c>
-      <c r="H16" s="25" t="n">
+      <c r="J16" s="25" t="n">
         <v>6.0E11</v>
       </c>
-      <c r="I16" s="25" t="n">
+      <c r="K16" s="25" t="n">
         <v>7.81E11</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="26" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B17" s="25" t="n">
         <v>2.542145338191E12</v>
@@ -8678,18 +9996,24 @@
         <v>1.561352E12</v>
       </c>
       <c r="G17" s="25" t="n">
+        <v>1.560867E12</v>
+      </c>
+      <c r="H17" s="25" t="n">
+        <v>1.561352E12</v>
+      </c>
+      <c r="I17" s="25" t="n">
         <v>2.498968E12</v>
       </c>
-      <c r="H17" s="25" t="n">
+      <c r="J17" s="25" t="n">
         <v>2.341957E12</v>
       </c>
-      <c r="I17" s="25" t="n">
+      <c r="K17" s="25" t="n">
         <v>1.745487E12</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="28" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B18" s="25" t="n">
         <v>2.44246938E12</v>
@@ -8712,10 +10036,16 @@
       <c r="I18" s="25" t="n">
         <v>1.406325E12</v>
       </c>
+      <c r="J18" s="25" t="n">
+        <v>1.406325E12</v>
+      </c>
+      <c r="K18" s="25" t="n">
+        <v>1.406325E12</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="26" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B19" s="25" t="n">
         <v>9.9675958191E10</v>
@@ -8730,18 +10060,24 @@
         <v>1.55027E11</v>
       </c>
       <c r="G19" s="25" t="n">
+        <v>1.54542E11</v>
+      </c>
+      <c r="H19" s="25" t="n">
+        <v>1.55027E11</v>
+      </c>
+      <c r="I19" s="25" t="n">
         <v>1.092643E12</v>
       </c>
-      <c r="H19" s="25" t="n">
+      <c r="J19" s="25" t="n">
         <v>9.35632E11</v>
       </c>
-      <c r="I19" s="25" t="n">
+      <c r="K19" s="25" t="n">
         <v>3.39162E11</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="26" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20" s="25" t="n">
         <v>9.9675958191E10</v>
@@ -8756,18 +10092,24 @@
         <v>1.55027E11</v>
       </c>
       <c r="G20" s="25" t="n">
+        <v>1.54542E11</v>
+      </c>
+      <c r="H20" s="25" t="n">
+        <v>1.55027E11</v>
+      </c>
+      <c r="I20" s="25" t="n">
         <v>1.092643E12</v>
       </c>
-      <c r="H20" s="25" t="n">
+      <c r="J20" s="25" t="n">
         <v>9.35632E11</v>
       </c>
-      <c r="I20" s="25" t="n">
+      <c r="K20" s="25" t="n">
         <v>3.39162E11</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="26" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B21" s="25" t="n">
         <v>0.0</v>
@@ -8788,12 +10130,18 @@
         <v>0.0</v>
       </c>
       <c r="I21" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J21" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K21" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="26" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B22" s="25" t="n">
         <v>0.0</v>
@@ -8814,12 +10162,18 @@
         <v>0.0</v>
       </c>
       <c r="I22" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J22" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K22" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="26" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B23" s="25" t="n">
         <v>0.0</v>
@@ -8840,12 +10194,18 @@
         <v>0.0</v>
       </c>
       <c r="I23" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J23" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K23" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="28" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B24" s="25" t="n">
         <v>7.84280640941E11</v>
@@ -8860,18 +10220,24 @@
         <v>9.45756E11</v>
       </c>
       <c r="G24" s="25" t="n">
+        <v>4.7704E11</v>
+      </c>
+      <c r="H24" s="25" t="n">
+        <v>9.45756E11</v>
+      </c>
+      <c r="I24" s="25" t="n">
         <v>1.669141E12</v>
       </c>
-      <c r="H24" s="25" t="n">
+      <c r="J24" s="25" t="n">
         <v>1.524341E12</v>
       </c>
-      <c r="I24" s="25" t="n">
+      <c r="K24" s="25" t="n">
         <v>1.998095E12</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="26" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B25" s="25" t="n">
         <v>0.0</v>
@@ -8892,12 +10258,18 @@
         <v>0.0</v>
       </c>
       <c r="I25" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J25" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K25" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="26" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B26" s="25" t="n">
         <v>0.0</v>
@@ -8918,12 +10290,18 @@
         <v>0.0</v>
       </c>
       <c r="I26" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J26" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K26" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="26" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B27" s="25" t="n">
         <v>0.0</v>
@@ -8944,12 +10322,18 @@
         <v>0.0</v>
       </c>
       <c r="I27" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J27" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K27" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B28" s="25" t="n">
         <v>7.84280640941E11</v>
@@ -8964,18 +10348,24 @@
         <v>9.45756E11</v>
       </c>
       <c r="G28" s="25" t="n">
+        <v>4.7704E11</v>
+      </c>
+      <c r="H28" s="25" t="n">
+        <v>9.45756E11</v>
+      </c>
+      <c r="I28" s="25" t="n">
         <v>1.669141E12</v>
       </c>
-      <c r="H28" s="25" t="n">
+      <c r="J28" s="25" t="n">
         <v>1.524341E12</v>
       </c>
-      <c r="I28" s="25" t="n">
+      <c r="K28" s="25" t="n">
         <v>1.998095E12</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="28" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B29" s="25" t="n">
         <v>3.652185541007E12</v>
@@ -8990,18 +10380,24 @@
         <v>5.851593E12</v>
       </c>
       <c r="G29" s="25" t="n">
+        <v>5.700189E12</v>
+      </c>
+      <c r="H29" s="25" t="n">
+        <v>5.851593E12</v>
+      </c>
+      <c r="I29" s="25" t="n">
         <v>5.691533E12</v>
       </c>
-      <c r="H29" s="25" t="n">
+      <c r="J29" s="25" t="n">
         <v>5.678723E12</v>
       </c>
-      <c r="I29" s="25" t="n">
+      <c r="K29" s="25" t="n">
         <v>5.748318E12</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="26" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B30" s="25" t="n">
         <v>2.8856E8</v>
@@ -9024,10 +10420,16 @@
       <c r="I30" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="J30" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K30" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="26" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B31" s="25" t="n">
         <v>6.3305465115E10</v>
@@ -9042,18 +10444,24 @@
         <v>1.37614E11</v>
       </c>
       <c r="G31" s="25" t="n">
+        <v>1.14288E11</v>
+      </c>
+      <c r="H31" s="25" t="n">
+        <v>1.37614E11</v>
+      </c>
+      <c r="I31" s="25" t="n">
         <v>1.14913E11</v>
       </c>
-      <c r="H31" s="25" t="n">
+      <c r="J31" s="25" t="n">
         <v>1.19382E11</v>
       </c>
-      <c r="I31" s="25" t="n">
+      <c r="K31" s="25" t="n">
         <v>1.24461E11</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="26" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B32" s="25" t="n">
         <v>3.5451004212E10</v>
@@ -9068,18 +10476,24 @@
         <v>7.06E9</v>
       </c>
       <c r="G32" s="25" t="n">
+        <v>7.391E9</v>
+      </c>
+      <c r="H32" s="25" t="n">
+        <v>7.06E9</v>
+      </c>
+      <c r="I32" s="25" t="n">
         <v>6.461E9</v>
       </c>
-      <c r="H32" s="25" t="n">
+      <c r="J32" s="25" t="n">
         <v>6.43E9</v>
       </c>
-      <c r="I32" s="25" t="n">
+      <c r="K32" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="26" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B33" s="25" t="n">
         <v>3.50568144421E12</v>
@@ -9094,18 +10508,24 @@
         <v>5.704653E12</v>
       </c>
       <c r="G33" s="25" t="n">
+        <v>2.159277E12</v>
+      </c>
+      <c r="H33" s="25" t="n">
+        <v>5.704653E12</v>
+      </c>
+      <c r="I33" s="25" t="n">
         <v>5.568613E12</v>
       </c>
-      <c r="H33" s="25" t="n">
+      <c r="J33" s="25" t="n">
         <v>4.326544E12</v>
       </c>
-      <c r="I33" s="25" t="n">
+      <c r="K33" s="25" t="n">
         <v>4.366545E12</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="26" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B34" s="25" t="n">
         <v>0.0</v>
@@ -9120,18 +10540,24 @@
         <v>1.58E8</v>
       </c>
       <c r="G34" s="25" t="n">
+        <v>2.646E9</v>
+      </c>
+      <c r="H34" s="25" t="n">
+        <v>1.58E8</v>
+      </c>
+      <c r="I34" s="25" t="n">
         <v>7.8E7</v>
       </c>
-      <c r="H34" s="25" t="n">
+      <c r="J34" s="25" t="n">
         <v>3.01E8</v>
       </c>
-      <c r="I34" s="25" t="n">
+      <c r="K34" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="26" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B35" s="25" t="n">
         <v>8.65080747E9</v>
@@ -9146,18 +10572,24 @@
         <v>2.108E9</v>
       </c>
       <c r="G35" s="25" t="n">
+        <v>3.52E8</v>
+      </c>
+      <c r="H35" s="25" t="n">
+        <v>2.108E9</v>
+      </c>
+      <c r="I35" s="25" t="n">
         <v>1.468E9</v>
       </c>
-      <c r="H35" s="25" t="n">
+      <c r="J35" s="25" t="n">
         <v>2.324E9</v>
       </c>
-      <c r="I35" s="25" t="n">
+      <c r="K35" s="25" t="n">
         <v>1.0575E10</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="26" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B36" s="25" t="n">
         <v>0.0</v>
@@ -9178,12 +10610,18 @@
         <v>0.0</v>
       </c>
       <c r="I36" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J36" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K36" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="26" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B37" s="25" t="n">
         <v>0.0</v>
@@ -9204,12 +10642,18 @@
         <v>0.0</v>
       </c>
       <c r="I37" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J37" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K37" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="26" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B38" s="25" t="n">
         <v>3.880826E10</v>
@@ -9224,18 +10668,24 @@
         <v>0.0</v>
       </c>
       <c r="G38" s="25" t="n">
-        <v>0.0</v>
+        <v>3.416235E12</v>
       </c>
       <c r="H38" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I38" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J38" s="25" t="n">
         <v>1.223742E12</v>
       </c>
-      <c r="I38" s="25" t="n">
+      <c r="K38" s="25" t="n">
         <v>1.246737E12</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="28" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B39" s="25" t="n">
         <v>0.0</v>
@@ -9256,12 +10706,18 @@
         <v>0.0</v>
       </c>
       <c r="I39" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J39" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K39" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="26" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B40" s="25" t="n">
         <v>0.0</v>
@@ -9282,12 +10738,18 @@
         <v>0.0</v>
       </c>
       <c r="I40" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J40" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K40" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="26" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B41" s="25" t="n">
         <v>0.0</v>
@@ -9308,12 +10770,18 @@
         <v>0.0</v>
       </c>
       <c r="I41" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J41" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K41" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="26" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B42" s="25" t="n">
         <v>0.0</v>
@@ -9334,12 +10802,18 @@
         <v>0.0</v>
       </c>
       <c r="I42" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J42" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K42" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="26" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B43" s="25" t="n">
         <v>0.0</v>
@@ -9360,12 +10834,18 @@
         <v>0.0</v>
       </c>
       <c r="I43" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J43" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K43" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="28" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B44" s="25" t="n">
         <v>3.904407864E9</v>
@@ -9380,18 +10860,24 @@
         <v>2.69224E11</v>
       </c>
       <c r="G44" s="25" t="n">
+        <v>1.01895E11</v>
+      </c>
+      <c r="H44" s="25" t="n">
+        <v>2.69224E11</v>
+      </c>
+      <c r="I44" s="25" t="n">
         <v>1.42495E11</v>
       </c>
-      <c r="H44" s="25" t="n">
+      <c r="J44" s="25" t="n">
         <v>1.22714E11</v>
       </c>
-      <c r="I44" s="25" t="n">
+      <c r="K44" s="25" t="n">
         <v>1.00225E11</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="26" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B45" s="25" t="n">
         <v>0.0</v>
@@ -9412,12 +10898,18 @@
         <v>0.0</v>
       </c>
       <c r="I45" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J45" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K45" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="26" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B46" s="25" t="n">
         <v>0.0</v>
@@ -9438,12 +10930,18 @@
         <v>0.0</v>
       </c>
       <c r="I46" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J46" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K46" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="26" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B47" s="25" t="n">
         <v>0.0</v>
@@ -9464,12 +10962,18 @@
         <v>0.0</v>
       </c>
       <c r="I47" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J47" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K47" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="26" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48" s="25" t="n">
         <v>3.904407864E9</v>
@@ -9484,18 +10988,24 @@
         <v>2.69224E11</v>
       </c>
       <c r="G48" s="25" t="n">
+        <v>1.01895E11</v>
+      </c>
+      <c r="H48" s="25" t="n">
+        <v>2.69224E11</v>
+      </c>
+      <c r="I48" s="25" t="n">
         <v>1.42495E11</v>
       </c>
-      <c r="H48" s="25" t="n">
+      <c r="J48" s="25" t="n">
         <v>1.22714E11</v>
       </c>
-      <c r="I48" s="25" t="n">
+      <c r="K48" s="25" t="n">
         <v>1.00225E11</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="28" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B49" s="25" t="n">
         <v>1.5165036110013E13</v>
@@ -9510,18 +11020,24 @@
         <v>4.4481428E13</v>
       </c>
       <c r="G49" s="25" t="n">
+        <v>4.7991351E13</v>
+      </c>
+      <c r="H49" s="25" t="n">
+        <v>4.4481428E13</v>
+      </c>
+      <c r="I49" s="25" t="n">
         <v>4.7319049E13</v>
       </c>
-      <c r="H49" s="25" t="n">
+      <c r="J49" s="25" t="n">
         <v>4.7456098E13</v>
       </c>
-      <c r="I49" s="25" t="n">
+      <c r="K49" s="25" t="n">
         <v>4.7127622E13</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="26" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B50" s="25" t="n">
         <v>7.866651852707E12</v>
@@ -9536,18 +11052,24 @@
         <v>3.285841E13</v>
       </c>
       <c r="G50" s="25" t="n">
-        <v>4.4481428E13</v>
+        <v>3.285841E13</v>
       </c>
       <c r="H50" s="25" t="n">
-        <v>4.4481428E13</v>
+        <v>3.285841E13</v>
       </c>
       <c r="I50" s="25" t="n">
         <v>4.4481428E13</v>
       </c>
+      <c r="J50" s="25" t="n">
+        <v>4.4481428E13</v>
+      </c>
+      <c r="K50" s="25" t="n">
+        <v>4.4481428E13</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="26" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B51" s="25" t="n">
         <v>7.491911280123E12</v>
@@ -9562,18 +11084,24 @@
         <v>1.2812843E13</v>
       </c>
       <c r="G51" s="25" t="n">
+        <v>1.5843661E13</v>
+      </c>
+      <c r="H51" s="25" t="n">
+        <v>1.2812843E13</v>
+      </c>
+      <c r="I51" s="25" t="n">
         <v>3.230154E12</v>
       </c>
-      <c r="H51" s="25" t="n">
+      <c r="J51" s="25" t="n">
         <v>3.4565E12</v>
       </c>
-      <c r="I51" s="25" t="n">
+      <c r="K51" s="25" t="n">
         <v>3.156126E12</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="26" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B52" s="25" t="n">
         <v>-1.93527022817E11</v>
@@ -9588,18 +11116,24 @@
         <v>-1.189825E12</v>
       </c>
       <c r="G52" s="25" t="n">
+        <v>-7.1072E11</v>
+      </c>
+      <c r="H52" s="25" t="n">
+        <v>-1.189825E12</v>
+      </c>
+      <c r="I52" s="25" t="n">
         <v>-3.92533E11</v>
       </c>
-      <c r="H52" s="25" t="n">
+      <c r="J52" s="25" t="n">
         <v>-4.8183E11</v>
       </c>
-      <c r="I52" s="25" t="n">
+      <c r="K52" s="25" t="n">
         <v>-5.09932E11</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="28" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B53" s="25" t="n">
         <v>2.435934887765E12</v>
@@ -9614,18 +11148,24 @@
         <v>1.2411336E13</v>
       </c>
       <c r="G53" s="25" t="n">
+        <v>1.1258329E13</v>
+      </c>
+      <c r="H53" s="25" t="n">
+        <v>1.2411336E13</v>
+      </c>
+      <c r="I53" s="25" t="n">
         <v>1.3008264E13</v>
       </c>
-      <c r="H53" s="25" t="n">
+      <c r="J53" s="25" t="n">
         <v>1.3740717E13</v>
       </c>
-      <c r="I53" s="25" t="n">
+      <c r="K53" s="25" t="n">
         <v>1.4447927E13</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="26" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B54" s="25" t="n">
         <v>1.185930854102E12</v>
@@ -9640,18 +11180,24 @@
         <v>1.0157932E13</v>
       </c>
       <c r="G54" s="25" t="n">
-        <v>1.2411336E13</v>
+        <v>1.0157932E13</v>
       </c>
       <c r="H54" s="25" t="n">
-        <v>1.2411336E13</v>
+        <v>1.0157932E13</v>
       </c>
       <c r="I54" s="25" t="n">
         <v>1.2411336E13</v>
       </c>
+      <c r="J54" s="25" t="n">
+        <v>1.2411336E13</v>
+      </c>
+      <c r="K54" s="25" t="n">
+        <v>1.2411336E13</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="26" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B55" s="25" t="n">
         <v>1.305573547364E12</v>
@@ -9666,18 +11212,24 @@
         <v>2.86115E12</v>
       </c>
       <c r="G55" s="25" t="n">
+        <v>1.474174E12</v>
+      </c>
+      <c r="H55" s="25" t="n">
+        <v>2.86115E12</v>
+      </c>
+      <c r="I55" s="25" t="n">
         <v>7.61679E11</v>
       </c>
-      <c r="H55" s="25" t="n">
+      <c r="J55" s="25" t="n">
         <v>1.557954E12</v>
       </c>
-      <c r="I55" s="25" t="n">
+      <c r="K55" s="25" t="n">
         <v>2.278069E12</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="26" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B56" s="25" t="n">
         <v>-5.5569513701E10</v>
@@ -9692,18 +11244,24 @@
         <v>-6.07746E11</v>
       </c>
       <c r="G56" s="25" t="n">
+        <v>-3.73777E11</v>
+      </c>
+      <c r="H56" s="25" t="n">
+        <v>-6.07746E11</v>
+      </c>
+      <c r="I56" s="25" t="n">
         <v>-1.64751E11</v>
       </c>
-      <c r="H56" s="25" t="n">
+      <c r="J56" s="25" t="n">
         <v>-2.28573E11</v>
       </c>
-      <c r="I56" s="25" t="n">
+      <c r="K56" s="25" t="n">
         <v>-2.41478E11</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="28" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B57" s="25" t="n">
         <v>0.0</v>
@@ -9726,10 +11284,16 @@
       <c r="I57" s="25" t="n">
         <v>3.46134E11</v>
       </c>
+      <c r="J57" s="25" t="n">
+        <v>3.46134E11</v>
+      </c>
+      <c r="K57" s="25" t="n">
+        <v>3.46134E11</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="26" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B58" s="25" t="n">
         <v>0.0</v>
@@ -9752,10 +11316,16 @@
       <c r="I58" s="25" t="n">
         <v>3.46134E11</v>
       </c>
+      <c r="J58" s="25" t="n">
+        <v>3.46134E11</v>
+      </c>
+      <c r="K58" s="25" t="n">
+        <v>3.46134E11</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="26" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B59" s="25" t="n">
         <v>0.0</v>
@@ -9776,12 +11346,18 @@
         <v>0.0</v>
       </c>
       <c r="I59" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J59" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K59" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="26" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B60" s="25" t="n">
         <v>0.0</v>
@@ -9802,12 +11378,18 @@
         <v>0.0</v>
       </c>
       <c r="I60" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J60" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K60" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="28" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B61" s="25" t="n">
         <v>0.0</v>
@@ -9822,18 +11404,24 @@
         <v>5.8717E10</v>
       </c>
       <c r="G61" s="25" t="n">
+        <v>4.6779E10</v>
+      </c>
+      <c r="H61" s="25" t="n">
+        <v>5.8717E10</v>
+      </c>
+      <c r="I61" s="25" t="n">
         <v>6.4491E10</v>
       </c>
-      <c r="H61" s="25" t="n">
+      <c r="J61" s="25" t="n">
         <v>7.0395E10</v>
       </c>
-      <c r="I61" s="25" t="n">
+      <c r="K61" s="25" t="n">
         <v>7.6364E10</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="26" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B62" s="25" t="n">
         <v>0.0</v>
@@ -9848,18 +11436,24 @@
         <v>3.5036E10</v>
       </c>
       <c r="G62" s="25" t="n">
-        <v>5.8717E10</v>
+        <v>3.5036E10</v>
       </c>
       <c r="H62" s="25" t="n">
-        <v>5.8717E10</v>
+        <v>3.5036E10</v>
       </c>
       <c r="I62" s="25" t="n">
         <v>5.8717E10</v>
       </c>
+      <c r="J62" s="25" t="n">
+        <v>5.8717E10</v>
+      </c>
+      <c r="K62" s="25" t="n">
+        <v>5.8717E10</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="26" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B63" s="25" t="n">
         <v>0.0</v>
@@ -9874,18 +11468,24 @@
         <v>2.3681E10</v>
       </c>
       <c r="G63" s="25" t="n">
+        <v>1.1743E10</v>
+      </c>
+      <c r="H63" s="25" t="n">
+        <v>2.3681E10</v>
+      </c>
+      <c r="I63" s="25" t="n">
         <v>5.774E9</v>
       </c>
-      <c r="H63" s="25" t="n">
+      <c r="J63" s="25" t="n">
         <v>1.1678E10</v>
       </c>
-      <c r="I63" s="25" t="n">
+      <c r="K63" s="25" t="n">
         <v>1.7647E10</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="26" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B64" s="25" t="n">
         <v>0.0</v>
@@ -9906,12 +11506,18 @@
         <v>0.0</v>
       </c>
       <c r="I64" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J64" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K64" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="28" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B65" s="25" t="n">
         <v>4.64908089811E11</v>
@@ -9926,18 +11532,24 @@
         <v>1.092752E12</v>
       </c>
       <c r="G65" s="25" t="n">
+        <v>1.149612E12</v>
+      </c>
+      <c r="H65" s="25" t="n">
+        <v>1.092752E12</v>
+      </c>
+      <c r="I65" s="25" t="n">
         <v>1.122399E12</v>
       </c>
-      <c r="H65" s="25" t="n">
+      <c r="J65" s="25" t="n">
         <v>1.166772E12</v>
       </c>
-      <c r="I65" s="25" t="n">
+      <c r="K65" s="25" t="n">
         <v>1.195083E12</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="26" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B66" s="25" t="n">
         <v>3.97802031212E11</v>
@@ -9952,18 +11564,24 @@
         <v>7.66731E11</v>
       </c>
       <c r="G66" s="25" t="n">
-        <v>1.092752E12</v>
+        <v>7.66731E11</v>
       </c>
       <c r="H66" s="25" t="n">
-        <v>1.092752E12</v>
+        <v>7.66731E11</v>
       </c>
       <c r="I66" s="25" t="n">
         <v>1.092752E12</v>
       </c>
+      <c r="J66" s="25" t="n">
+        <v>1.092752E12</v>
+      </c>
+      <c r="K66" s="25" t="n">
+        <v>1.092752E12</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="26" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B67" s="25" t="n">
         <v>6.7106058599E10</v>
@@ -9978,18 +11596,24 @@
         <v>4.09909E11</v>
       </c>
       <c r="G67" s="25" t="n">
+        <v>4.54992E11</v>
+      </c>
+      <c r="H67" s="25" t="n">
+        <v>4.09909E11</v>
+      </c>
+      <c r="I67" s="25" t="n">
         <v>2.9827E10</v>
       </c>
-      <c r="H67" s="25" t="n">
+      <c r="J67" s="25" t="n">
         <v>7.42E10</v>
       </c>
-      <c r="I67" s="25" t="n">
+      <c r="K67" s="25" t="n">
         <v>1.02618E11</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="26" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B68" s="25" t="n">
         <v>0.0</v>
@@ -10004,18 +11628,24 @@
         <v>-8.3888E10</v>
       </c>
       <c r="G68" s="25" t="n">
+        <v>-7.2111E10</v>
+      </c>
+      <c r="H68" s="25" t="n">
+        <v>-8.3888E10</v>
+      </c>
+      <c r="I68" s="25" t="n">
         <v>-1.8E8</v>
       </c>
-      <c r="H68" s="25" t="n">
+      <c r="J68" s="25" t="n">
         <v>-1.8E8</v>
       </c>
-      <c r="I68" s="25" t="n">
+      <c r="K68" s="25" t="n">
         <v>-2.87E8</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="28" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B69" s="25" t="n">
         <v>6.5568849034E10</v>
@@ -10030,18 +11660,24 @@
         <v>3.49453E11</v>
       </c>
       <c r="G69" s="25" t="n">
+        <v>3.20212E11</v>
+      </c>
+      <c r="H69" s="25" t="n">
+        <v>3.49453E11</v>
+      </c>
+      <c r="I69" s="25" t="n">
         <v>3.62485E11</v>
       </c>
-      <c r="H69" s="25" t="n">
+      <c r="J69" s="25" t="n">
         <v>3.77931E11</v>
       </c>
-      <c r="I69" s="25" t="n">
+      <c r="K69" s="25" t="n">
         <v>3.92713E11</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="26" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B70" s="25" t="n">
         <v>4.0781296573E10</v>
@@ -10056,18 +11692,24 @@
         <v>3.04531E11</v>
       </c>
       <c r="G70" s="25" t="n">
-        <v>3.49453E11</v>
+        <v>3.04531E11</v>
       </c>
       <c r="H70" s="25" t="n">
-        <v>3.49453E11</v>
+        <v>3.04531E11</v>
       </c>
       <c r="I70" s="25" t="n">
         <v>3.49453E11</v>
       </c>
+      <c r="J70" s="25" t="n">
+        <v>3.49453E11</v>
+      </c>
+      <c r="K70" s="25" t="n">
+        <v>3.49453E11</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="26" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B71" s="25" t="n">
         <v>2.4787552461E10</v>
@@ -10082,18 +11724,24 @@
         <v>6.2845E10</v>
       </c>
       <c r="G71" s="25" t="n">
+        <v>2.7881E10</v>
+      </c>
+      <c r="H71" s="25" t="n">
+        <v>6.2845E10</v>
+      </c>
+      <c r="I71" s="25" t="n">
         <v>1.3043E10</v>
       </c>
-      <c r="H71" s="25" t="n">
+      <c r="J71" s="25" t="n">
         <v>2.8489E10</v>
       </c>
-      <c r="I71" s="25" t="n">
+      <c r="K71" s="25" t="n">
         <v>4.3328E10</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="26" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B72" s="25" t="n">
         <v>0.0</v>
@@ -10108,18 +11756,24 @@
         <v>-1.7923E10</v>
       </c>
       <c r="G72" s="25" t="n">
+        <v>-1.22E10</v>
+      </c>
+      <c r="H72" s="25" t="n">
+        <v>-1.7923E10</v>
+      </c>
+      <c r="I72" s="25" t="n">
         <v>-1.1E7</v>
       </c>
-      <c r="H72" s="25" t="n">
+      <c r="J72" s="25" t="n">
         <v>-1.1E7</v>
       </c>
-      <c r="I72" s="25" t="n">
+      <c r="K72" s="25" t="n">
         <v>-6.8E7</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="28" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73" s="25" t="n">
         <v>1.55629562554E11</v>
@@ -10137,15 +11791,21 @@
         <v>0.0</v>
       </c>
       <c r="H73" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I73" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J73" s="25" t="n">
         <v>1.623732E12</v>
       </c>
-      <c r="I73" s="25" t="n">
+      <c r="K73" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="26" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B74" s="25" t="n">
         <v>0.0</v>
@@ -10166,12 +11826,18 @@
         <v>0.0</v>
       </c>
       <c r="I74" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J74" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K74" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="26" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B75" s="25" t="n">
         <v>0.0</v>
@@ -10192,12 +11858,18 @@
         <v>0.0</v>
       </c>
       <c r="I75" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J75" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K75" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="26" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B76" s="25" t="n">
         <v>0.0</v>
@@ -10218,12 +11890,18 @@
         <v>0.0</v>
       </c>
       <c r="I76" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J76" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K76" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="26" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B77" s="25" t="n">
         <v>0.0</v>
@@ -10244,12 +11922,18 @@
         <v>0.0</v>
       </c>
       <c r="I77" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J77" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K77" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="26" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B78" s="25" t="n">
         <v>1.55629562554E11</v>
@@ -10267,15 +11951,21 @@
         <v>0.0</v>
       </c>
       <c r="H78" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I78" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J78" s="25" t="n">
         <v>1.623732E12</v>
       </c>
-      <c r="I78" s="25" t="n">
+      <c r="K78" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="28" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B79" s="25" t="n">
         <v>3.517609978017E12</v>
@@ -10290,18 +11980,24 @@
         <v>3.459311E12</v>
       </c>
       <c r="G79" s="25" t="n">
+        <v>1.4507088E13</v>
+      </c>
+      <c r="H79" s="25" t="n">
+        <v>3.459311E12</v>
+      </c>
+      <c r="I79" s="25" t="n">
         <v>2.576699E12</v>
       </c>
-      <c r="H79" s="25" t="n">
+      <c r="J79" s="25" t="n">
         <v>3.176468E12</v>
       </c>
-      <c r="I79" s="25" t="n">
+      <c r="K79" s="25" t="n">
         <v>3.219675E12</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="26" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B80" s="25" t="n">
         <v>0.0</v>
@@ -10316,18 +12012,24 @@
         <v>3.311311E12</v>
       </c>
       <c r="G80" s="25" t="n">
+        <v>3.393293E12</v>
+      </c>
+      <c r="H80" s="25" t="n">
+        <v>3.311311E12</v>
+      </c>
+      <c r="I80" s="25" t="n">
         <v>2.428699E12</v>
       </c>
-      <c r="H80" s="25" t="n">
+      <c r="J80" s="25" t="n">
         <v>3.028468E12</v>
       </c>
-      <c r="I80" s="25" t="n">
+      <c r="K80" s="25" t="n">
         <v>2.891488E12</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="26" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B81" s="25" t="n">
         <v>3.517609978017E12</v>
@@ -10342,18 +12044,24 @@
         <v>1.48E11</v>
       </c>
       <c r="G81" s="25" t="n">
-        <v>1.48E11</v>
+        <v>1.1113795E13</v>
       </c>
       <c r="H81" s="25" t="n">
         <v>1.48E11</v>
       </c>
       <c r="I81" s="25" t="n">
+        <v>1.48E11</v>
+      </c>
+      <c r="J81" s="25" t="n">
+        <v>1.48E11</v>
+      </c>
+      <c r="K81" s="25" t="n">
         <v>3.28187E11</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="28" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B82" s="25" t="n">
         <v>4.32350824605E11</v>
@@ -10368,7 +12076,7 @@
         <v>5.370057E12</v>
       </c>
       <c r="G82" s="25" t="n">
-        <v>5.370057E12</v>
+        <v>1.627693E12</v>
       </c>
       <c r="H82" s="25" t="n">
         <v>5.370057E12</v>
@@ -10376,10 +12084,16 @@
       <c r="I82" s="25" t="n">
         <v>5.370057E12</v>
       </c>
+      <c r="J82" s="25" t="n">
+        <v>5.370057E12</v>
+      </c>
+      <c r="K82" s="25" t="n">
+        <v>5.370057E12</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="26" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B83" s="25" t="n">
         <v>2.33207819085E11</v>
@@ -10394,18 +12108,24 @@
         <v>0.0</v>
       </c>
       <c r="G83" s="25" t="n">
-        <v>5.370057E12</v>
+        <v>0.0</v>
       </c>
       <c r="H83" s="25" t="n">
-        <v>5.370057E12</v>
+        <v>0.0</v>
       </c>
       <c r="I83" s="25" t="n">
         <v>5.370057E12</v>
       </c>
+      <c r="J83" s="25" t="n">
+        <v>5.370057E12</v>
+      </c>
+      <c r="K83" s="25" t="n">
+        <v>5.370057E12</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="26" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B84" s="25" t="n">
         <v>1.9914300552E11</v>
@@ -10420,18 +12140,24 @@
         <v>5.370057E12</v>
       </c>
       <c r="G84" s="25" t="n">
-        <v>0.0</v>
+        <v>1.627693E12</v>
       </c>
       <c r="H84" s="25" t="n">
-        <v>0.0</v>
+        <v>5.370057E12</v>
       </c>
       <c r="I84" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J84" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K84" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="26" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B85" s="25" t="n">
         <v>0.0</v>
@@ -10452,12 +12178,18 @@
         <v>0.0</v>
       </c>
       <c r="I85" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J85" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K85" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="28" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B86" s="25" t="n">
         <v>1.61472880185E11</v>
@@ -10472,18 +12204,24 @@
         <v>4.47505E11</v>
       </c>
       <c r="G86" s="25" t="n">
+        <v>5.426E10</v>
+      </c>
+      <c r="H86" s="25" t="n">
+        <v>4.47505E11</v>
+      </c>
+      <c r="I86" s="25" t="n">
         <v>5.81757E11</v>
       </c>
-      <c r="H86" s="25" t="n">
+      <c r="J86" s="25" t="n">
         <v>7.16008E11</v>
       </c>
-      <c r="I86" s="25" t="n">
+      <c r="K86" s="25" t="n">
         <v>8.50259E11</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="26" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B87" s="25" t="n">
         <v>1.35196642516E11</v>
@@ -10498,18 +12236,24 @@
         <v>0.0</v>
       </c>
       <c r="G87" s="25" t="n">
-        <v>4.47505E11</v>
+        <v>0.0</v>
       </c>
       <c r="H87" s="25" t="n">
-        <v>4.47505E11</v>
+        <v>0.0</v>
       </c>
       <c r="I87" s="25" t="n">
         <v>4.47505E11</v>
       </c>
+      <c r="J87" s="25" t="n">
+        <v>4.47505E11</v>
+      </c>
+      <c r="K87" s="25" t="n">
+        <v>4.47505E11</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="26" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B88" s="25" t="n">
         <v>2.6276237669E10</v>
@@ -10524,18 +12268,24 @@
         <v>4.47505E11</v>
       </c>
       <c r="G88" s="25" t="n">
+        <v>5.426E10</v>
+      </c>
+      <c r="H88" s="25" t="n">
+        <v>4.47505E11</v>
+      </c>
+      <c r="I88" s="25" t="n">
         <v>1.34252E11</v>
       </c>
-      <c r="H88" s="25" t="n">
+      <c r="J88" s="25" t="n">
         <v>2.68503E11</v>
       </c>
-      <c r="I88" s="25" t="n">
+      <c r="K88" s="25" t="n">
         <v>4.02754E11</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="26" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B89" s="25" t="n">
         <v>0.0</v>
@@ -10556,12 +12306,18 @@
         <v>0.0</v>
       </c>
       <c r="I89" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J89" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K89" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="28" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B90" s="25" t="n">
         <v>5.0409584972E10</v>
@@ -10576,18 +12332,24 @@
         <v>2.186006E12</v>
       </c>
       <c r="G90" s="25" t="n">
+        <v>1.531171E12</v>
+      </c>
+      <c r="H90" s="25" t="n">
+        <v>2.186006E12</v>
+      </c>
+      <c r="I90" s="25" t="n">
         <v>1.051311E12</v>
       </c>
-      <c r="H90" s="25" t="n">
+      <c r="J90" s="25" t="n">
         <v>5.7846E11</v>
       </c>
-      <c r="I90" s="25" t="n">
+      <c r="K90" s="25" t="n">
         <v>7.87377E11</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="26" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B91" s="25" t="n">
         <v>7.415670676E9</v>
@@ -10602,18 +12364,24 @@
         <v>1.072081E12</v>
       </c>
       <c r="G91" s="25" t="n">
+        <v>9.06311E11</v>
+      </c>
+      <c r="H91" s="25" t="n">
+        <v>1.072081E12</v>
+      </c>
+      <c r="I91" s="25" t="n">
         <v>1.53488E11</v>
       </c>
-      <c r="H91" s="25" t="n">
+      <c r="J91" s="25" t="n">
         <v>2.41854E11</v>
       </c>
-      <c r="I91" s="25" t="n">
+      <c r="K91" s="25" t="n">
         <v>3.2438E11</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="26" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B92" s="25" t="n">
         <v>0.0</v>
@@ -10634,12 +12402,18 @@
         <v>0.0</v>
       </c>
       <c r="I92" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J92" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K92" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="26" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B93" s="25" t="n">
         <v>0.0</v>
@@ -10660,12 +12434,18 @@
         <v>0.0</v>
       </c>
       <c r="I93" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J93" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K93" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="26" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B94" s="25" t="n">
         <v>6.303077655E9</v>
@@ -10680,18 +12460,24 @@
         <v>7.613E11</v>
       </c>
       <c r="G94" s="25" t="n">
+        <v>4.63743E11</v>
+      </c>
+      <c r="H94" s="25" t="n">
+        <v>7.613E11</v>
+      </c>
+      <c r="I94" s="25" t="n">
         <v>7.48768E11</v>
       </c>
-      <c r="H94" s="25" t="n">
+      <c r="J94" s="25" t="n">
         <v>1.89021E11</v>
       </c>
-      <c r="I94" s="25" t="n">
+      <c r="K94" s="25" t="n">
         <v>1.87436E11</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="26" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B95" s="25" t="n">
         <v>2.8350451447E10</v>
@@ -10706,18 +12492,24 @@
         <v>5.9554E10</v>
       </c>
       <c r="G95" s="25" t="n">
+        <v>5.7333E10</v>
+      </c>
+      <c r="H95" s="25" t="n">
+        <v>5.9554E10</v>
+      </c>
+      <c r="I95" s="25" t="n">
         <v>7.5365E10</v>
       </c>
-      <c r="H95" s="25" t="n">
+      <c r="J95" s="25" t="n">
         <v>3.3261E10</v>
       </c>
-      <c r="I95" s="25" t="n">
+      <c r="K95" s="25" t="n">
         <v>3.007E10</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="26" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B96" s="25" t="n">
         <v>0.0</v>
@@ -10738,12 +12530,18 @@
         <v>0.0</v>
       </c>
       <c r="I96" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J96" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K96" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="26" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B97" s="25" t="n">
         <v>0.0</v>
@@ -10758,18 +12556,24 @@
         <v>1.722E9</v>
       </c>
       <c r="G97" s="25" t="n">
+        <v>2.764E9</v>
+      </c>
+      <c r="H97" s="25" t="n">
+        <v>1.722E9</v>
+      </c>
+      <c r="I97" s="25" t="n">
         <v>1.243E10</v>
       </c>
-      <c r="H97" s="25" t="n">
+      <c r="J97" s="25" t="n">
         <v>1.3217E10</v>
       </c>
-      <c r="I97" s="25" t="n">
+      <c r="K97" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="26" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B98" s="25" t="n">
         <v>8.340385194E9</v>
@@ -10784,18 +12588,24 @@
         <v>2.91349E11</v>
       </c>
       <c r="G98" s="25" t="n">
+        <v>1.9878E10</v>
+      </c>
+      <c r="H98" s="25" t="n">
+        <v>2.91349E11</v>
+      </c>
+      <c r="I98" s="25" t="n">
         <v>6.126E10</v>
       </c>
-      <c r="H98" s="25" t="n">
+      <c r="J98" s="25" t="n">
         <v>1.01107E11</v>
       </c>
-      <c r="I98" s="25" t="n">
+      <c r="K98" s="25" t="n">
         <v>2.45491E11</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="26" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B99" s="25" t="n">
         <v>0.0</v>
@@ -10810,18 +12620,24 @@
         <v>0.0</v>
       </c>
       <c r="G99" s="25" t="n">
-        <v>0.0</v>
+        <v>8.1142E10</v>
       </c>
       <c r="H99" s="25" t="n">
         <v>0.0</v>
       </c>
       <c r="I99" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J99" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K99" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="28" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B100" s="25" t="n">
         <v>2.960434486612E12</v>
@@ -10836,18 +12652,24 @@
         <v>2.647691E12</v>
       </c>
       <c r="G100" s="25" t="n">
+        <v>2.491596E12</v>
+      </c>
+      <c r="H100" s="25" t="n">
+        <v>2.647691E12</v>
+      </c>
+      <c r="I100" s="25" t="n">
         <v>2.389099E12</v>
       </c>
-      <c r="H100" s="25" t="n">
+      <c r="J100" s="25" t="n">
         <v>2.242807E12</v>
       </c>
-      <c r="I100" s="25" t="n">
+      <c r="K100" s="25" t="n">
         <v>1.887486E12</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="26" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B101" s="25" t="n">
         <v>0.0</v>
@@ -10868,12 +12690,18 @@
         <v>0.0</v>
       </c>
       <c r="I101" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J101" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K101" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="26" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B102" s="25" t="n">
         <v>0.0</v>
@@ -10894,12 +12722,18 @@
         <v>0.0</v>
       </c>
       <c r="I102" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J102" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K102" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="26" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B103" s="25" t="n">
         <v>0.0</v>
@@ -10920,12 +12754,18 @@
         <v>0.0</v>
       </c>
       <c r="I103" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J103" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K103" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="26" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B104" s="25" t="n">
         <v>2.960434486612E12</v>
@@ -10940,18 +12780,24 @@
         <v>2.647691E12</v>
       </c>
       <c r="G104" s="25" t="n">
+        <v>2.491596E12</v>
+      </c>
+      <c r="H104" s="25" t="n">
+        <v>2.647691E12</v>
+      </c>
+      <c r="I104" s="25" t="n">
         <v>2.389099E12</v>
       </c>
-      <c r="H104" s="25" t="n">
+      <c r="J104" s="25" t="n">
         <v>2.242807E12</v>
       </c>
-      <c r="I104" s="25" t="n">
+      <c r="K104" s="25" t="n">
         <v>1.887486E12</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="28" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B105" s="25" t="n">
         <v>4.115382190139E12</v>
@@ -10966,18 +12812,24 @@
         <v>5.207051E12</v>
       </c>
       <c r="G105" s="25" t="n">
+        <v>4.717309E12</v>
+      </c>
+      <c r="H105" s="25" t="n">
+        <v>5.207051E12</v>
+      </c>
+      <c r="I105" s="25" t="n">
         <v>5.81097E12</v>
       </c>
-      <c r="H105" s="25" t="n">
+      <c r="J105" s="25" t="n">
         <v>6.068211E12</v>
       </c>
-      <c r="I105" s="25" t="n">
+      <c r="K105" s="25" t="n">
         <v>5.92536E12</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="26" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B106" s="25" t="n">
         <v>0.0</v>
@@ -10998,12 +12850,18 @@
         <v>0.0</v>
       </c>
       <c r="I106" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J106" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K106" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="26" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B107" s="25" t="n">
         <v>0.0</v>
@@ -11024,12 +12882,18 @@
         <v>0.0</v>
       </c>
       <c r="I107" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J107" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K107" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="26" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B108" s="25" t="n">
         <v>0.0</v>
@@ -11050,12 +12914,18 @@
         <v>0.0</v>
       </c>
       <c r="I108" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J108" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K108" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="26" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B109" s="25" t="n">
         <v>0.0</v>
@@ -11076,12 +12946,18 @@
         <v>0.0</v>
       </c>
       <c r="I109" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J109" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K109" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="26" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B110" s="25" t="n">
         <v>0.0</v>
@@ -11102,12 +12978,18 @@
         <v>0.0</v>
       </c>
       <c r="I110" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J110" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K110" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="26" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B111" s="25" t="n">
         <v>0.0</v>
@@ -11128,12 +13010,18 @@
         <v>0.0</v>
       </c>
       <c r="I111" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J111" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K111" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="26" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B112" s="25" t="n">
         <v>0.0</v>
@@ -11154,12 +13042,18 @@
         <v>0.0</v>
       </c>
       <c r="I112" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J112" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K112" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="26" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B113" s="25" t="n">
         <v>0.0</v>
@@ -11180,12 +13074,18 @@
         <v>0.0</v>
       </c>
       <c r="I113" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J113" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K113" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="26" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B114" s="25" t="n">
         <v>4.115382190139E12</v>
@@ -11200,18 +13100,24 @@
         <v>5.207051E12</v>
       </c>
       <c r="G114" s="25" t="n">
+        <v>4.717309E12</v>
+      </c>
+      <c r="H114" s="25" t="n">
+        <v>5.207051E12</v>
+      </c>
+      <c r="I114" s="25" t="n">
         <v>5.81097E12</v>
       </c>
-      <c r="H114" s="25" t="n">
+      <c r="J114" s="25" t="n">
         <v>6.068211E12</v>
       </c>
-      <c r="I114" s="25" t="n">
+      <c r="K114" s="25" t="n">
         <v>5.92536E12</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="28" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B115" s="25" t="n">
         <v>6.016E11</v>
@@ -11226,18 +13132,24 @@
         <v>9.414227E12</v>
       </c>
       <c r="G115" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H115" s="25" t="n">
+        <v>9.414227E12</v>
+      </c>
+      <c r="I115" s="25" t="n">
         <v>9.477721E12</v>
       </c>
-      <c r="H115" s="25" t="n">
+      <c r="J115" s="25" t="n">
         <v>9.712763E12</v>
       </c>
-      <c r="I115" s="25" t="n">
+      <c r="K115" s="25" t="n">
         <v>9.311706E12</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="26" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B116" s="25" t="n">
         <v>6.016E11</v>
@@ -11252,18 +13164,24 @@
         <v>5.707904E12</v>
       </c>
       <c r="G116" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H116" s="25" t="n">
+        <v>5.707904E12</v>
+      </c>
+      <c r="I116" s="25" t="n">
         <v>5.697307E12</v>
       </c>
-      <c r="H116" s="25" t="n">
+      <c r="J116" s="25" t="n">
         <v>5.880308E12</v>
       </c>
-      <c r="I116" s="25" t="n">
+      <c r="K116" s="25" t="n">
         <v>5.887712E12</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="26" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B117" s="25" t="n">
         <v>0.0</v>
@@ -11284,12 +13202,18 @@
         <v>0.0</v>
       </c>
       <c r="I117" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J117" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K117" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="26" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B118" s="25" t="n">
         <v>0.0</v>
@@ -11304,18 +13228,24 @@
         <v>3.706323E12</v>
       </c>
       <c r="G118" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H118" s="25" t="n">
+        <v>3.706323E12</v>
+      </c>
+      <c r="I118" s="25" t="n">
         <v>3.780414E12</v>
       </c>
-      <c r="H118" s="25" t="n">
+      <c r="J118" s="25" t="n">
         <v>3.832455E12</v>
       </c>
-      <c r="I118" s="25" t="n">
+      <c r="K118" s="25" t="n">
         <v>3.423994E12</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="26" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B119" s="25" t="n">
         <v>0.0</v>
@@ -11336,12 +13266,18 @@
         <v>0.0</v>
       </c>
       <c r="I119" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J119" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K119" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="26" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B120" s="25" t="n">
         <v>0.0</v>
@@ -11362,12 +13298,18 @@
         <v>0.0</v>
       </c>
       <c r="I120" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J120" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K120" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="28" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B121" s="25" t="n">
         <v>0.0</v>
@@ -11388,12 +13330,18 @@
         <v>0.0</v>
       </c>
       <c r="I121" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J121" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K121" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="26" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B122" s="25" t="n">
         <v>0.0</v>
@@ -11414,12 +13362,18 @@
         <v>0.0</v>
       </c>
       <c r="I122" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J122" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K122" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="26" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B123" s="25" t="n">
         <v>0.0</v>
@@ -11440,12 +13394,18 @@
         <v>0.0</v>
       </c>
       <c r="I123" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J123" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K123" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="28" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B124" s="25" t="n">
         <v>1.8763420819288E13</v>
@@ -11460,18 +13420,24 @@
         <v>1.4388176E13</v>
       </c>
       <c r="G124" s="25" t="n">
+        <v>5.034196E12</v>
+      </c>
+      <c r="H124" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I124" s="25" t="n">
         <v>2.973152E12</v>
       </c>
-      <c r="H124" s="25" t="n">
+      <c r="J124" s="25" t="n">
         <v>2.946477E12</v>
       </c>
-      <c r="I124" s="25" t="n">
+      <c r="K124" s="25" t="n">
         <v>3.111001E12</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="26" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B125" s="25" t="n">
         <v>0.0</v>
@@ -11486,18 +13452,24 @@
         <v>0.0</v>
       </c>
       <c r="G125" s="25" t="n">
-        <v>0.0</v>
+        <v>2.954445E12</v>
       </c>
       <c r="H125" s="25" t="n">
         <v>0.0</v>
       </c>
       <c r="I125" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J125" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K125" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="26" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B126" s="25" t="n">
         <v>1.8763420819288E13</v>
@@ -11512,18 +13484,24 @@
         <v>1.4388176E13</v>
       </c>
       <c r="G126" s="25" t="n">
+        <v>2.079751E12</v>
+      </c>
+      <c r="H126" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I126" s="25" t="n">
         <v>2.973152E12</v>
       </c>
-      <c r="H126" s="25" t="n">
+      <c r="J126" s="25" t="n">
         <v>2.946477E12</v>
       </c>
-      <c r="I126" s="25" t="n">
+      <c r="K126" s="25" t="n">
         <v>3.111001E12</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="26" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B127" s="25" t="n">
         <v>0.0</v>
@@ -11544,12 +13522,18 @@
         <v>0.0</v>
       </c>
       <c r="I127" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J127" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K127" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="28" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B128" s="25" t="n">
         <v>1.0101289478E10</v>
@@ -11564,18 +13548,24 @@
         <v>1.2027E10</v>
       </c>
       <c r="G128" s="25" t="n">
+        <v>4.52E9</v>
+      </c>
+      <c r="H128" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I128" s="25" t="n">
         <v>2.506E9</v>
       </c>
-      <c r="H128" s="25" t="n">
+      <c r="J128" s="25" t="n">
         <v>4.627E9</v>
       </c>
-      <c r="I128" s="25" t="n">
+      <c r="K128" s="25" t="n">
         <v>9.897E9</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="26" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B129" s="25" t="n">
         <v>1.0101289478E10</v>
@@ -11590,18 +13580,24 @@
         <v>1.2027E10</v>
       </c>
       <c r="G129" s="25" t="n">
+        <v>4.52E9</v>
+      </c>
+      <c r="H129" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I129" s="25" t="n">
         <v>2.506E9</v>
       </c>
-      <c r="H129" s="25" t="n">
+      <c r="J129" s="25" t="n">
         <v>4.627E9</v>
       </c>
-      <c r="I129" s="25" t="n">
+      <c r="K129" s="25" t="n">
         <v>9.897E9</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="26" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B130" s="25" t="n">
         <v>0.0</v>
@@ -11622,12 +13618,18 @@
         <v>0.0</v>
       </c>
       <c r="I130" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J130" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K130" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="26" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B131" s="25" t="n">
         <v>0.0</v>
@@ -11648,12 +13650,18 @@
         <v>0.0</v>
       </c>
       <c r="I131" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J131" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K131" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="26" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B132" s="25" t="n">
         <v>0.0</v>
@@ -11674,12 +13682,18 @@
         <v>0.0</v>
       </c>
       <c r="I132" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J132" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K132" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="26" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B133" s="25" t="n">
         <v>0.0</v>
@@ -11700,12 +13714,18 @@
         <v>0.0</v>
       </c>
       <c r="I133" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J133" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K133" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="26" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B134" s="25" t="n">
         <v>0.0</v>
@@ -11726,12 +13746,18 @@
         <v>0.0</v>
       </c>
       <c r="I134" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J134" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K134" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="28" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B135" s="25" t="n">
         <v>1.4512063748189E13</v>
@@ -11746,18 +13772,24 @@
         <v>1.1513069E13</v>
       </c>
       <c r="G135" s="25" t="n">
+        <v>3.612051E12</v>
+      </c>
+      <c r="H135" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I135" s="25" t="n">
         <v>2.153007E12</v>
       </c>
-      <c r="H135" s="25" t="n">
+      <c r="J135" s="25" t="n">
         <v>2.174196E12</v>
       </c>
-      <c r="I135" s="25" t="n">
+      <c r="K135" s="25" t="n">
         <v>2.281643E12</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="26" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B136" s="25" t="n">
         <v>0.0</v>
@@ -11778,12 +13810,18 @@
         <v>0.0</v>
       </c>
       <c r="I136" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J136" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K136" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="26" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B137" s="25" t="n">
         <v>0.0</v>
@@ -11798,18 +13836,24 @@
         <v>0.0</v>
       </c>
       <c r="G137" s="25" t="n">
-        <v>0.0</v>
+        <v>1.769147E12</v>
       </c>
       <c r="H137" s="25" t="n">
         <v>0.0</v>
       </c>
       <c r="I137" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J137" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K137" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="26" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B138" s="25" t="n">
         <v>1.4512063748189E13</v>
@@ -11824,18 +13868,24 @@
         <v>1.1513069E13</v>
       </c>
       <c r="G138" s="25" t="n">
+        <v>1.842904E12</v>
+      </c>
+      <c r="H138" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I138" s="25" t="n">
         <v>2.153007E12</v>
       </c>
-      <c r="H138" s="25" t="n">
+      <c r="J138" s="25" t="n">
         <v>2.174196E12</v>
       </c>
-      <c r="I138" s="25" t="n">
+      <c r="K138" s="25" t="n">
         <v>2.281643E12</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="26" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B139" s="25" t="n">
         <v>0.0</v>
@@ -11856,12 +13906,18 @@
         <v>0.0</v>
       </c>
       <c r="I139" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J139" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K139" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="26" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B140" s="25" t="n">
         <v>0.0</v>
@@ -11882,12 +13938,18 @@
         <v>0.0</v>
       </c>
       <c r="I140" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J140" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K140" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="26" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B141" s="25" t="n">
         <v>0.0</v>
@@ -11908,12 +13970,18 @@
         <v>0.0</v>
       </c>
       <c r="I141" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J141" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K141" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="26" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B142" s="25" t="n">
         <v>0.0</v>
@@ -11934,12 +14002,18 @@
         <v>0.0</v>
       </c>
       <c r="I142" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J142" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K142" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="26" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B143" s="25" t="n">
         <v>0.0</v>
@@ -11960,12 +14034,18 @@
         <v>0.0</v>
       </c>
       <c r="I143" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J143" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K143" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="28" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B144" s="25" t="n">
         <v>3.84302005295E11</v>
@@ -11980,18 +14060,24 @@
         <v>4.264321E12</v>
       </c>
       <c r="G144" s="25" t="n">
+        <v>2.8285E10</v>
+      </c>
+      <c r="H144" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I144" s="25" t="n">
         <v>5.14555E11</v>
       </c>
-      <c r="H144" s="25" t="n">
+      <c r="J144" s="25" t="n">
         <v>4.75386E11</v>
       </c>
-      <c r="I144" s="25" t="n">
+      <c r="K144" s="25" t="n">
         <v>4.98999E11</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="26" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B145" s="25" t="n">
         <v>3.43456864927E11</v>
@@ -12006,18 +14092,24 @@
         <v>1.030222E12</v>
       </c>
       <c r="G145" s="25" t="n">
+        <v>2.0417E10</v>
+      </c>
+      <c r="H145" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I145" s="25" t="n">
         <v>5.05432E11</v>
       </c>
-      <c r="H145" s="25" t="n">
+      <c r="J145" s="25" t="n">
         <v>4.77451E11</v>
       </c>
-      <c r="I145" s="25" t="n">
+      <c r="K145" s="25" t="n">
         <v>4.93452E11</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="26" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B146" s="25" t="n">
         <v>0.0</v>
@@ -12038,12 +14130,18 @@
         <v>0.0</v>
       </c>
       <c r="I146" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J146" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K146" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="26" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B147" s="25" t="n">
         <v>0.0</v>
@@ -12064,12 +14162,18 @@
         <v>0.0</v>
       </c>
       <c r="I147" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J147" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K147" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="26" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B148" s="25" t="n">
         <v>3.1908863723E10</v>
@@ -12092,10 +14196,16 @@
       <c r="I148" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="J148" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K148" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="26" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B149" s="25" t="n">
         <v>0.0</v>
@@ -12116,12 +14226,18 @@
         <v>0.0</v>
       </c>
       <c r="I149" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J149" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K149" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="26" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B150" s="25" t="n">
         <v>3.314086534E9</v>
@@ -12136,18 +14252,24 @@
         <v>1.1069E10</v>
       </c>
       <c r="G150" s="25" t="n">
+        <v>7.443E9</v>
+      </c>
+      <c r="H150" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I150" s="25" t="n">
         <v>8.811E9</v>
       </c>
-      <c r="H150" s="25" t="n">
+      <c r="J150" s="25" t="n">
         <v>-2.302E9</v>
       </c>
-      <c r="I150" s="25" t="n">
+      <c r="K150" s="25" t="n">
         <v>5.523E9</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="26" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B151" s="25" t="n">
         <v>0.0</v>
@@ -12168,12 +14290,18 @@
         <v>0.0</v>
       </c>
       <c r="I151" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J151" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K151" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="26" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B152" s="25" t="n">
         <v>0.0</v>
@@ -12194,12 +14322,18 @@
         <v>0.0</v>
       </c>
       <c r="I152" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J152" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K152" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="26" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B153" s="25" t="n">
         <v>5.622190111E9</v>
@@ -12214,18 +14348,24 @@
         <v>3.22303E12</v>
       </c>
       <c r="G153" s="25" t="n">
+        <v>4.25E8</v>
+      </c>
+      <c r="H153" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I153" s="25" t="n">
         <v>3.12E8</v>
       </c>
-      <c r="H153" s="25" t="n">
+      <c r="J153" s="25" t="n">
         <v>2.37E8</v>
       </c>
-      <c r="I153" s="25" t="n">
+      <c r="K153" s="25" t="n">
         <v>2.4E7</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="28" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B154" s="25" t="n">
         <v>5.05619988173E11</v>
@@ -12240,18 +14380,24 @@
         <v>1.740331E12</v>
       </c>
       <c r="G154" s="25" t="n">
+        <v>4.7219E11</v>
+      </c>
+      <c r="H154" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I154" s="25" t="n">
         <v>4.29204E11</v>
       </c>
-      <c r="H154" s="25" t="n">
+      <c r="J154" s="25" t="n">
         <v>5.12514E11</v>
       </c>
-      <c r="I154" s="25" t="n">
+      <c r="K154" s="25" t="n">
         <v>4.9979E11</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="26" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B155" s="25" t="n">
         <v>3.54100871406E11</v>
@@ -12266,18 +14412,24 @@
         <v>1.325781E12</v>
       </c>
       <c r="G155" s="25" t="n">
+        <v>2.18797E11</v>
+      </c>
+      <c r="H155" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I155" s="25" t="n">
         <v>2.92265E11</v>
       </c>
-      <c r="H155" s="25" t="n">
+      <c r="J155" s="25" t="n">
         <v>2.86584E11</v>
       </c>
-      <c r="I155" s="25" t="n">
+      <c r="K155" s="25" t="n">
         <v>3.06579E11</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="26" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B156" s="25" t="n">
         <v>0.0</v>
@@ -12300,10 +14452,16 @@
       <c r="I156" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="J156" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K156" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="26" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B157" s="25" t="n">
         <v>8.560555E10</v>
@@ -12326,10 +14484,16 @@
       <c r="I157" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="J157" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K157" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="26" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B158" s="25" t="n">
         <v>0.0</v>
@@ -12350,12 +14514,18 @@
         <v>0.0</v>
       </c>
       <c r="I158" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J158" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K158" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="26" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B159" s="25" t="n">
         <v>5.8847045863E10</v>
@@ -12370,18 +14540,24 @@
         <v>3.6995E11</v>
       </c>
       <c r="G159" s="25" t="n">
+        <v>2.17238E11</v>
+      </c>
+      <c r="H159" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I159" s="25" t="n">
         <v>8.493E10</v>
       </c>
-      <c r="H159" s="25" t="n">
+      <c r="J159" s="25" t="n">
         <v>1.84291E11</v>
       </c>
-      <c r="I159" s="25" t="n">
+      <c r="K159" s="25" t="n">
         <v>5.212E10</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="26" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B160" s="25" t="n">
         <v>0.0</v>
@@ -12402,12 +14578,18 @@
         <v>0.0</v>
       </c>
       <c r="I160" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J160" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K160" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="26" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B161" s="25" t="n">
         <v>0.0</v>
@@ -12428,12 +14610,18 @@
         <v>0.0</v>
       </c>
       <c r="I161" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J161" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K161" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="26" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B162" s="25" t="n">
         <v>7.066520904E9</v>
@@ -12448,18 +14636,24 @@
         <v>4.46E10</v>
       </c>
       <c r="G162" s="25" t="n">
+        <v>3.6155E10</v>
+      </c>
+      <c r="H162" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I162" s="25" t="n">
         <v>5.2009E10</v>
       </c>
-      <c r="H162" s="25" t="n">
+      <c r="J162" s="25" t="n">
         <v>4.1639E10</v>
       </c>
-      <c r="I162" s="25" t="n">
+      <c r="K162" s="25" t="n">
         <v>1.41091E11</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="28" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B163" s="25" t="n">
         <v>1.4363150923968E13</v>
@@ -12477,15 +14671,21 @@
         <v>0.0</v>
       </c>
       <c r="H163" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I163" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J163" s="25" t="n">
         <v>5.346571E12</v>
       </c>
-      <c r="I163" s="25" t="n">
+      <c r="K163" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="26" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B164" s="25" t="n">
         <v>1.007240646479E12</v>
@@ -12503,15 +14703,21 @@
         <v>0.0</v>
       </c>
       <c r="H164" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I164" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J164" s="25" t="n">
         <v>8.37886E11</v>
       </c>
-      <c r="I164" s="25" t="n">
+      <c r="K164" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="26" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B165" s="25" t="n">
         <v>9.2537177821E11</v>
@@ -12529,15 +14735,21 @@
         <v>0.0</v>
       </c>
       <c r="H165" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I165" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J165" s="25" t="n">
         <v>1.3369E12</v>
       </c>
-      <c r="I165" s="25" t="n">
+      <c r="K165" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="26" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B166" s="25" t="n">
         <v>6.94496792632E11</v>
@@ -12555,15 +14767,21 @@
         <v>0.0</v>
       </c>
       <c r="H166" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I166" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J166" s="25" t="n">
         <v>1.882508E12</v>
       </c>
-      <c r="I166" s="25" t="n">
+      <c r="K166" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="26" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B167" s="25" t="n">
         <v>4.06200550131E12</v>
@@ -12581,15 +14799,21 @@
         <v>0.0</v>
       </c>
       <c r="H167" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I167" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J167" s="25" t="n">
         <v>1.053768E12</v>
       </c>
-      <c r="I167" s="25" t="n">
+      <c r="K167" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="26" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B168" s="25" t="n">
         <v>7.674036205337E12</v>
@@ -12607,9 +14831,15 @@
         <v>0.0</v>
       </c>
       <c r="H168" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I168" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J168" s="25" t="n">
         <v>2.35509E11</v>
       </c>
-      <c r="I168" s="25" t="n">
+      <c r="K168" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -12651,7 +14881,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B10:E10"/>
-    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G10:K10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A174" r:id="rId1" display="https://www.vietcap.com.vn/" xr:uid="{D6386FB0-752A-884E-829A-45A876D98EB2}"/>

--- a/data/VPL.xlsx
+++ b/data/VPL.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>17/12/2025</t>
+    <t>21/12/2025</t>
   </si>
   <si>
     <t>VPL</t>

--- a/data/VPL.xlsx
+++ b/data/VPL.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>21/12/2025</t>
+    <t>23/12/2025</t>
   </si>
   <si>
     <t>VPL</t>

--- a/data/VPL.xlsx
+++ b/data/VPL.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>23/12/2025</t>
+    <t>25/12/2025</t>
   </si>
   <si>
     <t>VPL</t>
